--- a/etc/WebtechNF.xlsx
+++ b/etc/WebtechNF.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01067E06-256B-4749-B1D8-23D7CA3CDCB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="CourseDate" sheetId="8" r:id="rId8"/>
     <sheet name="StudentT" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="60">
   <si>
     <t>Student_name</t>
   </si>
@@ -213,12 +212,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +225,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -234,7 +233,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -243,7 +242,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -258,6 +257,13 @@
       <color rgb="FF1D2129"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -425,9 +431,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -443,7 +446,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -452,13 +454,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
-    <cellStyle name="ส่วนที่ถูกเน้น1" xfId="2" builtinId="29"/>
-    <cellStyle name="ส่วนที่ถูกเน้น2" xfId="3" builtinId="33"/>
-    <cellStyle name="หัวเรื่อง 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,27 +739,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -796,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -837,7 +841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="H3" t="s">
         <v>15</v>
       </c>
@@ -851,7 +855,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -868,7 +872,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="H5" t="s">
         <v>18</v>
       </c>
@@ -882,7 +886,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -923,7 +927,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="H7" t="s">
         <v>15</v>
       </c>
@@ -937,7 +941,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="H8" t="s">
         <v>17</v>
       </c>
@@ -954,7 +958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="H9" t="s">
         <v>18</v>
       </c>
@@ -968,7 +972,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="H11" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="H12" t="s">
         <v>18</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="H13" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1095,7 +1099,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="H15" t="s">
         <v>17</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="H16" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="H17" t="s">
         <v>16</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="H19" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="H20" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="H21" t="s">
         <v>18</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="H23" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="H24" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1302,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="H25" t="s">
         <v>18</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="9" t="s">
         <v>35</v>
       </c>
@@ -1353,7 +1357,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="H27" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="H28" t="s">
         <v>18</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="H29" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="H31" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="H32" t="s">
         <v>18</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:13">
       <c r="H33" t="s">
         <v>16</v>
       </c>
@@ -1486,14 +1490,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{F0901453-96B2-4B89-A79C-80970F66A7E8}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{3E57E166-0FC0-4C22-90AB-F8E193303D25}"/>
-    <hyperlink ref="G18" r:id="rId3" xr:uid="{F541E2A3-ECB4-4F25-A9B3-546CBBB3A63C}"/>
-    <hyperlink ref="G22" r:id="rId4" xr:uid="{432C2972-6EA0-4590-BE0F-1103B96ACB66}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{1185B4B5-82B6-4D7C-986C-8829CD566551}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{158B4325-8401-442A-9A48-F90EB199948C}"/>
-    <hyperlink ref="G26" r:id="rId7" xr:uid="{665D72F5-9E0D-4E15-B433-8986D0221AF3}"/>
-    <hyperlink ref="G30" r:id="rId8" xr:uid="{E54CF806-BA9D-4C39-A7A9-06C780CB7DB4}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G18" r:id="rId3"/>
+    <hyperlink ref="G22" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G14" r:id="rId6"/>
+    <hyperlink ref="G26" r:id="rId7"/>
+    <hyperlink ref="G30" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -1501,32 +1505,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F97A3-E546-46A8-959E-ED3547506ADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" thickBot="1">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1">
       <c r="A2">
         <v>59010187</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>59010187</v>
       </c>
@@ -1658,7 +1662,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>59010187</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>59010187</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>59010164</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>59010164</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>59010164</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>59010164</v>
       </c>
@@ -1922,7 +1926,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>59010940</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>59010940</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>59010940</v>
       </c>
@@ -2054,7 +2058,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>59010940</v>
       </c>
@@ -2098,7 +2102,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>59011201</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>59011201</v>
       </c>
@@ -2186,7 +2190,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>59011201</v>
       </c>
@@ -2230,7 +2234,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>59011201</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>59010187</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>59010187</v>
       </c>
@@ -2362,7 +2366,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>59010187</v>
       </c>
@@ -2406,7 +2410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>59010187</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>59010164</v>
       </c>
@@ -2494,7 +2498,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>59010164</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>59010164</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>59010164</v>
       </c>
@@ -2626,7 +2630,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>59010940</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>59010940</v>
       </c>
@@ -2714,7 +2718,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>59010940</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>59010940</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>59011201</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>59011201</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>59011201</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>59011201</v>
       </c>
@@ -2980,65 +2984,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{749BA21D-0006-4FA6-B294-FCD111467544}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{4FD87E70-744D-4B30-A8A3-B80DAD82006F}"/>
-    <hyperlink ref="H18" r:id="rId3" xr:uid="{785977A1-EB59-4174-980C-9BC4634BA4CC}"/>
-    <hyperlink ref="H22" r:id="rId4" xr:uid="{078ED141-AFDA-4017-B2E2-5A69DBBC2435}"/>
-    <hyperlink ref="H10" r:id="rId5" xr:uid="{EF172961-9A90-422C-9196-C8CC2A3BA75D}"/>
-    <hyperlink ref="H14" r:id="rId6" xr:uid="{486DC79C-735E-4358-945B-D6960AAE4DFD}"/>
-    <hyperlink ref="H26" r:id="rId7" xr:uid="{8F00E713-7E80-4468-B7E8-F2CABA7C4BAF}"/>
-    <hyperlink ref="H30" r:id="rId8" xr:uid="{FFB5C2CE-7A94-4FBC-8845-84665C6267F0}"/>
-    <hyperlink ref="H3" r:id="rId9" xr:uid="{CA83B32C-61CE-4C84-A44E-4D15BBD85F02}"/>
-    <hyperlink ref="H4" r:id="rId10" xr:uid="{D6982996-5624-43BE-B229-BD6BB401865C}"/>
-    <hyperlink ref="H5" r:id="rId11" xr:uid="{96423F9F-E73D-4942-97A1-8B5CBE92BCB8}"/>
-    <hyperlink ref="H7" r:id="rId12" xr:uid="{D5D62210-8474-43C3-887E-4CFC868E7318}"/>
-    <hyperlink ref="H8" r:id="rId13" xr:uid="{656E7249-C0DC-4515-8BFF-6DCAD6B7C146}"/>
-    <hyperlink ref="H9" r:id="rId14" xr:uid="{E1F31E46-ED9C-4ABF-9B41-B7D8C6117436}"/>
-    <hyperlink ref="H11" r:id="rId15" xr:uid="{031BFF46-714F-4B50-A99C-1FAA93381A3E}"/>
-    <hyperlink ref="H12" r:id="rId16" xr:uid="{768CF1B7-79B0-46E7-BC34-1E1C168F9E1C}"/>
-    <hyperlink ref="H13" r:id="rId17" xr:uid="{39F257B0-EEF0-4DA6-BCF6-601783A3B063}"/>
-    <hyperlink ref="H15" r:id="rId18" xr:uid="{7DEF4884-BB0B-436D-9643-7038206C559C}"/>
-    <hyperlink ref="H16" r:id="rId19" xr:uid="{9F59C62B-59A0-443F-BF11-4F91DA6670A2}"/>
-    <hyperlink ref="H17" r:id="rId20" xr:uid="{00E9643F-132E-4F2A-8C97-AC1DE7C3256A}"/>
-    <hyperlink ref="H19" r:id="rId21" xr:uid="{3256A7B5-FA6F-4155-B342-29BBAF8009D3}"/>
-    <hyperlink ref="H20" r:id="rId22" xr:uid="{992AFF1F-F946-411A-87C9-15E4E976AA54}"/>
-    <hyperlink ref="H21" r:id="rId23" xr:uid="{F889E944-B7BE-41F4-ACFA-0D8BF2DED158}"/>
-    <hyperlink ref="H23" r:id="rId24" xr:uid="{4ECC3C74-5A44-4B6E-8919-7C690B38D432}"/>
-    <hyperlink ref="H24" r:id="rId25" xr:uid="{D50262D8-4156-4B81-A41A-384E9E9EA0EB}"/>
-    <hyperlink ref="H25" r:id="rId26" xr:uid="{30DB25A5-1833-460D-9D57-533D8B2C6793}"/>
-    <hyperlink ref="H27" r:id="rId27" xr:uid="{A3FB433E-641D-4737-812E-087A36F20492}"/>
-    <hyperlink ref="H28" r:id="rId28" xr:uid="{8C8A45E1-71F2-41B6-A98E-A8F2C2CE35FD}"/>
-    <hyperlink ref="H29" r:id="rId29" xr:uid="{BA5FF3B1-A4D2-4FFB-8078-2493BBCB8508}"/>
-    <hyperlink ref="H31" r:id="rId30" xr:uid="{CEE4178D-CCAA-4A4A-AADB-22E98E19C070}"/>
-    <hyperlink ref="H32" r:id="rId31" xr:uid="{88717631-3234-4AE7-BB69-E729A93F7E4B}"/>
-    <hyperlink ref="H33" r:id="rId32" xr:uid="{42BE465D-F1FD-4AB2-9A9D-C9EB336FC96E}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H18" r:id="rId3"/>
+    <hyperlink ref="H22" r:id="rId4"/>
+    <hyperlink ref="H10" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H26" r:id="rId7"/>
+    <hyperlink ref="H30" r:id="rId8"/>
+    <hyperlink ref="H3" r:id="rId9"/>
+    <hyperlink ref="H4" r:id="rId10"/>
+    <hyperlink ref="H5" r:id="rId11"/>
+    <hyperlink ref="H7" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13"/>
+    <hyperlink ref="H9" r:id="rId14"/>
+    <hyperlink ref="H11" r:id="rId15"/>
+    <hyperlink ref="H12" r:id="rId16"/>
+    <hyperlink ref="H13" r:id="rId17"/>
+    <hyperlink ref="H15" r:id="rId18"/>
+    <hyperlink ref="H16" r:id="rId19"/>
+    <hyperlink ref="H17" r:id="rId20"/>
+    <hyperlink ref="H19" r:id="rId21"/>
+    <hyperlink ref="H20" r:id="rId22"/>
+    <hyperlink ref="H21" r:id="rId23"/>
+    <hyperlink ref="H23" r:id="rId24"/>
+    <hyperlink ref="H24" r:id="rId25"/>
+    <hyperlink ref="H25" r:id="rId26"/>
+    <hyperlink ref="H27" r:id="rId27"/>
+    <hyperlink ref="H28" r:id="rId28"/>
+    <hyperlink ref="H29" r:id="rId29"/>
+    <hyperlink ref="H31" r:id="rId30"/>
+    <hyperlink ref="H32" r:id="rId31"/>
+    <hyperlink ref="H33" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E604AACA-A7DC-47B6-8F32-40D60245717C}">
-  <dimension ref="A1:L37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -3067,154 +3072,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+    <row r="2" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A2" s="20">
         <v>59010187</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>35449</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+    <row r="3" spans="1:11">
+      <c r="A3" s="20">
         <v>59010164</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>35670</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+    <row r="4" spans="1:11">
+      <c r="A4" s="20">
         <v>59010940</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>35944</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+    <row r="5" spans="1:11">
+      <c r="A5" s="20">
         <v>59011201</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>35788</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="13" t="s">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:11" ht="18" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -3235,530 +3240,649 @@
       <c r="J12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
-        <v>1236055</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="K12" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A13" s="4">
+        <v>180001</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="17">
-        <v>3</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16">
         <v>21</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>43208</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>0.5</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="4">
         <v>59010187</v>
       </c>
-      <c r="K13" s="28">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
-        <v>1236054</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="K13" s="4">
+        <v>180001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4">
+        <v>180002</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17">
-        <v>3</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="C14" s="16">
+        <v>3</v>
+      </c>
+      <c r="D14" s="16">
         <v>21</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>43208</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="4">
         <v>59010187</v>
       </c>
-      <c r="K14" s="29">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>1236052</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="K14" s="4">
+        <v>180002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4">
+        <v>180003</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="17">
-        <v>3</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="C15" s="16">
+        <v>3</v>
+      </c>
+      <c r="D15" s="16">
         <v>21</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>43209</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>0.375</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>0.5</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="4">
         <v>59010187</v>
       </c>
-      <c r="K15" s="29">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
-        <v>1236053</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="K15" s="4">
+        <v>180003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4">
+        <v>180004</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="17">
-        <v>3</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="C16" s="16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="16">
         <v>21</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>43209</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="4">
         <v>59010187</v>
       </c>
-      <c r="K16" s="28">
-        <v>1236053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
-        <v>1236055</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="K16" s="4">
+        <v>180004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4">
+        <v>180005</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17">
-        <v>3</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="C17" s="16">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16">
         <v>21</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>43215</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>0.5</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="4">
         <v>59010164</v>
       </c>
-      <c r="K17" s="28">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
-        <v>1236054</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="K17" s="4">
+        <v>180001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4">
+        <v>180006</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17">
-        <v>3</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="C18" s="16">
+        <v>3</v>
+      </c>
+      <c r="D18" s="16">
         <v>21</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>43215</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="4">
         <v>59010164</v>
       </c>
-      <c r="K18" s="29">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
-        <v>1236052</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="K18" s="4">
+        <v>180002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4">
+        <v>180007</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="17">
-        <v>3</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="C19" s="16">
+        <v>3</v>
+      </c>
+      <c r="D19" s="16">
         <v>21</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>43216</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>0.375</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>0.5</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="4">
         <v>59010164</v>
       </c>
-      <c r="K19" s="29">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
-        <v>1236053</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="K19" s="4">
+        <v>180003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4">
+        <v>180008</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="17">
-        <v>3</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="C20" s="16">
+        <v>3</v>
+      </c>
+      <c r="D20" s="16">
         <v>21</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>43216</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="4">
         <v>59010164</v>
       </c>
-      <c r="K20" s="28">
-        <v>1236053</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
-        <v>1236054</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="K20" s="4">
+        <v>180004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4">
+        <v>180009</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="17">
-        <v>3</v>
-      </c>
-      <c r="D21" s="17">
-        <v>22</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="C21" s="16">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16">
+        <v>22</v>
+      </c>
+      <c r="E21" s="17">
         <v>43208</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>0.375</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <v>0.5</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="4">
+        <v>59010187</v>
+      </c>
+      <c r="K21" s="4">
+        <v>180005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4">
+        <v>180010</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3</v>
+      </c>
+      <c r="D22" s="16">
+        <v>22</v>
+      </c>
+      <c r="E22" s="17">
+        <v>43208</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J22" s="4">
+        <v>59010187</v>
+      </c>
+      <c r="K22" s="4">
+        <v>180006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4">
+        <v>180011</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="16">
+        <v>3</v>
+      </c>
+      <c r="D23" s="16">
+        <v>22</v>
+      </c>
+      <c r="E23" s="17">
+        <v>43208</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J23" s="4">
+        <v>59010187</v>
+      </c>
+      <c r="K23" s="4">
+        <v>180007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4">
+        <v>180012</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="16">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16">
+        <v>22</v>
+      </c>
+      <c r="E24" s="17">
+        <v>43209</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>59010187</v>
+      </c>
+      <c r="K24" s="4">
+        <v>180008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4">
+        <v>180013</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="16">
+        <v>3</v>
+      </c>
+      <c r="D25" s="16">
+        <v>22</v>
+      </c>
+      <c r="E25" s="17">
+        <v>43215</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>59010164</v>
+      </c>
+      <c r="K25" s="4">
+        <v>180005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4">
+        <v>180014</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="16">
+        <v>3</v>
+      </c>
+      <c r="D26" s="16">
+        <v>22</v>
+      </c>
+      <c r="E26" s="17">
+        <v>43215</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J26" s="4">
+        <v>59010164</v>
+      </c>
+      <c r="K26" s="4">
+        <v>180006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4">
+        <v>180015</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="16">
+        <v>3</v>
+      </c>
+      <c r="D27" s="16">
+        <v>22</v>
+      </c>
+      <c r="E27" s="17">
+        <v>43215</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J27" s="4">
+        <v>59010164</v>
+      </c>
+      <c r="K27" s="4">
+        <v>180007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="4">
+        <v>180016</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="16">
+        <v>3</v>
+      </c>
+      <c r="D28" s="16">
+        <v>22</v>
+      </c>
+      <c r="E28" s="17">
+        <v>43216</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="4">
+        <v>59010164</v>
+      </c>
+      <c r="K28" s="4">
+        <v>180008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="J29" s="4">
         <v>59010940</v>
       </c>
-      <c r="K21" s="28">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
-        <v>1236052</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="17">
-        <v>3</v>
-      </c>
-      <c r="D22" s="17">
-        <v>22</v>
-      </c>
-      <c r="E22" s="18">
-        <v>43208</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G22" s="20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J22" s="21">
+      <c r="K29" s="4">
+        <v>180009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="J30" s="4">
         <v>59010940</v>
       </c>
-      <c r="K22" s="29">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
-        <v>1236053</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="17">
-        <v>3</v>
-      </c>
-      <c r="D23" s="17">
-        <v>22</v>
-      </c>
-      <c r="E23" s="18">
-        <v>43208</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G23" s="20">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="J23" s="21">
+      <c r="K30" s="4">
+        <v>180010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="J31" s="4">
         <v>59010940</v>
       </c>
-      <c r="K23" s="29">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
-        <v>1236055</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="17">
-        <v>3</v>
-      </c>
-      <c r="D24" s="17">
-        <v>22</v>
-      </c>
-      <c r="E24" s="18">
-        <v>43209</v>
-      </c>
-      <c r="F24" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="J24" s="21">
+      <c r="K31" s="4">
+        <v>180011</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="J32" s="4">
         <v>59010940</v>
       </c>
-      <c r="K24" s="28">
-        <v>1236053</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
-        <v>1236054</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="17">
-        <v>3</v>
-      </c>
-      <c r="D25" s="17">
-        <v>22</v>
-      </c>
-      <c r="E25" s="18">
-        <v>43215</v>
-      </c>
-      <c r="F25" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="21">
+      <c r="K32" s="4">
+        <v>180012</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="10:12">
+      <c r="J33" s="4">
         <v>59011201</v>
       </c>
-      <c r="K25" s="28">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
-        <v>1236052</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="17">
-        <v>3</v>
-      </c>
-      <c r="D26" s="17">
-        <v>22</v>
-      </c>
-      <c r="E26" s="18">
-        <v>43215</v>
-      </c>
-      <c r="F26" s="19">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J26" s="21">
+      <c r="K33" s="4">
+        <v>180009</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12">
+      <c r="J34" s="4">
         <v>59011201</v>
       </c>
-      <c r="K26" s="29">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
-        <v>1236053</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="17">
-        <v>3</v>
-      </c>
-      <c r="D27" s="17">
-        <v>22</v>
-      </c>
-      <c r="E27" s="18">
-        <v>43215</v>
-      </c>
-      <c r="F27" s="19">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G27" s="20">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="J27" s="21">
+      <c r="K34" s="4">
+        <v>180010</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="10:12">
+      <c r="J35" s="4">
         <v>59011201</v>
       </c>
-      <c r="K27" s="29">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
-        <v>1236055</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="17">
-        <v>3</v>
-      </c>
-      <c r="D28" s="17">
-        <v>22</v>
-      </c>
-      <c r="E28" s="18">
-        <v>43216</v>
-      </c>
-      <c r="F28" s="19">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="G28" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="J28" s="30">
+      <c r="K35" s="4">
+        <v>180011</v>
+      </c>
+    </row>
+    <row r="36" spans="10:12">
+      <c r="J36" s="4">
         <v>59011201</v>
       </c>
-      <c r="K28" s="31">
-        <v>1236053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L32" s="6"/>
-    </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L34" s="7"/>
-    </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="K36" s="4">
+        <v>180012</v>
+      </c>
+    </row>
+    <row r="37" spans="10:12">
+      <c r="J37" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K37" s="4">
+        <v>180013</v>
+      </c>
       <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="10:12">
+      <c r="J38" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K38" s="4">
+        <v>180014</v>
+      </c>
+    </row>
+    <row r="39" spans="10:12">
+      <c r="J39" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K39" s="4">
+        <v>180015</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12">
+      <c r="J40" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K40" s="4">
+        <v>180016</v>
+      </c>
+    </row>
+    <row r="41" spans="10:12">
+      <c r="J41" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K41" s="4">
+        <v>180013</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12">
+      <c r="J42" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K42" s="4">
+        <v>180014</v>
+      </c>
+    </row>
+    <row r="43" spans="10:12">
+      <c r="J43" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K43" s="4">
+        <v>180015</v>
+      </c>
+    </row>
+    <row r="44" spans="10:12">
+      <c r="J44" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K44" s="4">
+        <v>180016</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{512203D7-6F7B-418E-A2B1-C322867992D0}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{48D99483-3A04-428D-BE86-2CFC6E6E613B}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{771AFAA7-C742-4642-94D4-9E0AA2C2AF10}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{EB08043C-0483-45FA-AB5B-E9B9CAE9DFFE}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74B3C0D-7223-4786-BF61-2299651FCC91}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="K10" sqref="K10:K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -3787,7 +3911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="15.75" thickTop="1">
       <c r="A2" s="4">
         <v>59010187</v>
       </c>
@@ -3816,7 +3940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="4">
         <v>59010164</v>
       </c>
@@ -3845,7 +3969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="4">
         <v>59010940</v>
       </c>
@@ -3874,7 +3998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="4">
         <v>59011201</v>
       </c>
@@ -3903,577 +4027,731 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="18" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="X10" s="26"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" thickTop="1">
       <c r="A11" s="4">
         <v>180001</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="31">
         <v>1236055</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="16">
         <v>21</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="17">
         <v>43208</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="19">
         <v>0.5</v>
       </c>
       <c r="J11" s="4">
         <v>59010187</v>
       </c>
-      <c r="K11" s="11">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="32">
+        <v>180001</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="X11" s="27"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="4">
         <v>180002</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="32">
         <v>1236054</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="16">
         <v>21</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="17">
         <v>43208</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="J12" s="4">
         <v>59010187</v>
       </c>
-      <c r="K12" s="4">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="32">
+        <v>180002</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="X12" s="28"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="4">
         <v>180003</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="32">
         <v>1236052</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="16">
         <v>21</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="17">
         <v>43209</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="18">
         <v>0.375</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="19">
         <v>0.5</v>
       </c>
       <c r="J13" s="4">
         <v>59010187</v>
       </c>
-      <c r="K13" s="4">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="32">
+        <v>180003</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="X13" s="28"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="4">
         <v>180004</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="31">
         <v>1236053</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="16">
         <v>21</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="17">
         <v>43209</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="J14" s="4">
         <v>59010187</v>
       </c>
-      <c r="K14" s="11">
-        <v>1236053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="32">
+        <v>180004</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="X14" s="27"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="4">
         <v>180005</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="31">
         <v>1236055</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="16">
         <v>21</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="17">
         <v>43215</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="19">
         <v>0.5</v>
       </c>
       <c r="J15" s="4">
         <v>59010164</v>
       </c>
-      <c r="K15" s="11">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="32">
+        <v>180001</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="X15" s="27"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="4">
         <v>180006</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="32">
         <v>1236054</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="16">
         <v>21</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="17">
         <v>43215</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="J16" s="4">
         <v>59010164</v>
       </c>
-      <c r="K16" s="4">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="32">
+        <v>180002</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="X16" s="28"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="4">
         <v>180007</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="32">
         <v>1236052</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="16">
         <v>21</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="17">
         <v>43216</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="18">
         <v>0.375</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="19">
         <v>0.5</v>
       </c>
       <c r="J17" s="4">
         <v>59010164</v>
       </c>
-      <c r="K17" s="4">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="32">
+        <v>180003</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="X17" s="28"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="4">
         <v>180008</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="31">
         <v>1236053</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="16">
         <v>21</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="17">
         <v>43216</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="J18" s="4">
         <v>59010164</v>
       </c>
-      <c r="K18" s="11">
-        <v>1236053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="32">
+        <v>180004</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="X18" s="27"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="4">
         <v>180009</v>
       </c>
-      <c r="B19" s="34">
-        <v>1236054</v>
-      </c>
-      <c r="C19">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="B19" s="31">
+        <v>1236055</v>
+      </c>
+      <c r="C19" s="16">
+        <v>22</v>
+      </c>
+      <c r="D19" s="17">
         <v>43208</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="18">
         <v>0.375</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="19">
         <v>0.5</v>
       </c>
       <c r="J19" s="4">
-        <v>59010940</v>
-      </c>
-      <c r="K19" s="11">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59010187</v>
+      </c>
+      <c r="K19" s="32">
+        <v>180005</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="X19" s="27"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="4">
         <v>180010</v>
       </c>
-      <c r="B20" s="34">
-        <v>1236052</v>
-      </c>
-      <c r="C20">
-        <v>22</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="32">
+        <v>1236054</v>
+      </c>
+      <c r="C20" s="16">
+        <v>22</v>
+      </c>
+      <c r="D20" s="17">
         <v>43208</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="J20" s="4">
-        <v>59010940</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59010187</v>
+      </c>
+      <c r="K20" s="32">
+        <v>180006</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="X20" s="28"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="4">
         <v>180011</v>
       </c>
-      <c r="B21" s="33">
-        <v>1236053</v>
-      </c>
-      <c r="C21">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B21" s="32">
+        <v>1236052</v>
+      </c>
+      <c r="C21" s="16">
+        <v>22</v>
+      </c>
+      <c r="D21" s="17">
         <v>43208</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="19">
         <v>0.85416666666666663</v>
       </c>
       <c r="J21" s="4">
-        <v>59010940</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59010187</v>
+      </c>
+      <c r="K21" s="32">
+        <v>180007</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="X21" s="28"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="4">
         <v>180012</v>
       </c>
-      <c r="B22" s="33">
-        <v>1236055</v>
-      </c>
-      <c r="C22">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="B22" s="31">
+        <v>1236053</v>
+      </c>
+      <c r="C22" s="16">
+        <v>22</v>
+      </c>
+      <c r="D22" s="17">
         <v>43209</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="18">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="19">
         <v>0.5</v>
       </c>
       <c r="J22" s="4">
-        <v>59010940</v>
-      </c>
-      <c r="K22" s="11">
-        <v>1236053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59010187</v>
+      </c>
+      <c r="K22" s="32">
+        <v>180008</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="X22" s="27"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="4">
         <v>180013</v>
       </c>
-      <c r="B23" s="34">
-        <v>1236054</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="B23" s="31">
+        <v>1236055</v>
+      </c>
+      <c r="C23" s="16">
+        <v>22</v>
+      </c>
+      <c r="D23" s="17">
         <v>43215</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="18">
         <v>0.375</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="19">
         <v>0.5</v>
       </c>
       <c r="J23" s="4">
-        <v>59011201</v>
-      </c>
-      <c r="K23" s="11">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59010164</v>
+      </c>
+      <c r="K23" s="32">
+        <v>180005</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="X23" s="27"/>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="4">
         <v>180014</v>
       </c>
-      <c r="B24" s="34">
-        <v>1236052</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="B24" s="32">
+        <v>1236054</v>
+      </c>
+      <c r="C24" s="16">
+        <v>22</v>
+      </c>
+      <c r="D24" s="17">
         <v>43215</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="18">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="J24" s="4">
-        <v>59011201</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59010164</v>
+      </c>
+      <c r="K24" s="32">
+        <v>180006</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="X24" s="28"/>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="4">
         <v>180015</v>
       </c>
-      <c r="B25" s="33">
-        <v>1236053</v>
-      </c>
-      <c r="C25">
-        <v>22</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="B25" s="32">
+        <v>1236052</v>
+      </c>
+      <c r="C25" s="16">
+        <v>22</v>
+      </c>
+      <c r="D25" s="17">
         <v>43215</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="18">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="19">
         <v>0.85416666666666663</v>
       </c>
       <c r="J25" s="4">
-        <v>59011201</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59010164</v>
+      </c>
+      <c r="K25" s="32">
+        <v>180007</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="X25" s="28"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" thickBot="1">
       <c r="A26" s="4">
         <v>180016</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="31">
+        <v>1236053</v>
+      </c>
+      <c r="C26" s="16">
+        <v>22</v>
+      </c>
+      <c r="D26" s="17">
+        <v>43216</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>59010164</v>
+      </c>
+      <c r="K26" s="32">
+        <v>180008</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="X26" s="29"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="J27" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K27" s="32">
+        <v>180009</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="23"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="J28" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K28" s="32">
+        <v>180010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="J29" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K29" s="32">
+        <v>180011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="J30" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K30" s="32">
+        <v>180012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="J31" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K31" s="32">
+        <v>180009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="18" thickBot="1">
+      <c r="A32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K32" s="32">
+        <v>180010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A33" s="11">
         <v>1236055</v>
       </c>
-      <c r="C26">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43216</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4">
         <v>59011201</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K33" s="32">
+        <v>180011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4">
+        <v>1236054</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K34" s="32">
+        <v>180012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4">
+        <v>1236052</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K35" s="32">
+        <v>180013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="11">
         <v>1236053</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
-        <v>1236055</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>1236054</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>1236052</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
-        <v>1236053</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="J36" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K36" s="32">
+        <v>180014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="J37" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K37" s="32">
+        <v>180015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="J38" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="K38" s="32">
+        <v>180016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="J39" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K39" s="32">
+        <v>180013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="J40" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K40" s="32">
+        <v>180014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="J41" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K41" s="32">
+        <v>180015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="J42" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="K42" s="32">
+        <v>180016</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{FD780023-95C4-4F89-8B64-5B5F24CAD145}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{C1D3C7DC-38F3-4DF6-9A33-00D98A470FB1}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{7CAF78B6-538A-43AC-929D-D5CEDA1F3294}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{3558B701-ED9C-4CA0-96A4-C8E107F4F7C3}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7E34D-C7F1-4E6B-8D8C-98EE39133568}">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="J10:K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -4502,7 +4780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1">
       <c r="A2" s="4">
         <v>59010187</v>
       </c>
@@ -4531,7 +4809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>59010164</v>
       </c>
@@ -4560,7 +4838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>59010940</v>
       </c>
@@ -4589,7 +4867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>59011201</v>
       </c>
@@ -4618,26 +4896,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
@@ -4652,18 +4930,30 @@
       <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="I10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickTop="1">
       <c r="A11" s="4">
-        <v>180001</v>
-      </c>
-      <c r="B11" s="33">
+        <v>181001</v>
+      </c>
+      <c r="B11" s="31">
         <v>1236055</v>
       </c>
       <c r="C11">
@@ -4678,504 +4968,663 @@
       <c r="F11" s="3">
         <v>0.5</v>
       </c>
-      <c r="J11" s="4">
-        <v>59010187</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="I11" s="4">
+        <v>182001</v>
+      </c>
+      <c r="J11" s="32">
+        <v>1236054</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11" s="1">
+        <v>43208</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4">
+        <v>181002</v>
+      </c>
+      <c r="B12" s="31">
         <v>1236055</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>180002</v>
-      </c>
-      <c r="B12" s="34">
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43209</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>182002</v>
+      </c>
+      <c r="J12" s="32">
         <v>1236054</v>
       </c>
-      <c r="C12">
+      <c r="K12">
         <v>21</v>
       </c>
-      <c r="D12" s="1">
+      <c r="L12" s="1">
         <v>43208</v>
       </c>
-      <c r="E12" s="3">
+      <c r="M12" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F12" s="3">
+      <c r="N12" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J12" s="4">
-        <v>59010187</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="4">
-        <v>180003</v>
-      </c>
-      <c r="B13" s="34">
-        <v>1236052</v>
+        <v>181003</v>
+      </c>
+      <c r="B13" s="31">
+        <v>1236055</v>
       </c>
       <c r="C13">
         <v>21</v>
       </c>
       <c r="D13" s="1">
-        <v>43209</v>
+        <v>43215</v>
       </c>
       <c r="E13" s="3">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F13" s="3">
         <v>0.5</v>
       </c>
-      <c r="J13" s="4">
+      <c r="I13" s="4">
+        <v>182003</v>
+      </c>
+      <c r="J13" s="32">
+        <v>1236054</v>
+      </c>
+      <c r="K13">
+        <v>22</v>
+      </c>
+      <c r="L13" s="1">
+        <v>43215</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4">
+        <v>181004</v>
+      </c>
+      <c r="B14" s="31">
+        <v>1236055</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43216</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>182004</v>
+      </c>
+      <c r="J14" s="32">
+        <v>1236054</v>
+      </c>
+      <c r="K14">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1">
+        <v>43215</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" thickBot="1">
+      <c r="A18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A19" s="11">
+        <v>1236055</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickTop="1">
+      <c r="A20" s="4">
+        <v>1236054</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>183001</v>
+      </c>
+      <c r="J20" s="32">
+        <v>1236052</v>
+      </c>
+      <c r="K20">
+        <v>22</v>
+      </c>
+      <c r="L20" s="1">
+        <v>43208</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4">
+        <v>1236052</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4">
+        <v>183002</v>
+      </c>
+      <c r="J21" s="32">
+        <v>1236052</v>
+      </c>
+      <c r="K21">
+        <v>21</v>
+      </c>
+      <c r="L21" s="1">
+        <v>43209</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="11">
+        <v>1236053</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>183003</v>
+      </c>
+      <c r="J22" s="32">
+        <v>1236052</v>
+      </c>
+      <c r="K22">
+        <v>22</v>
+      </c>
+      <c r="L22" s="1">
+        <v>43215</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="I23" s="4">
+        <v>183004</v>
+      </c>
+      <c r="J23" s="32">
+        <v>1236052</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+      <c r="L23" s="1">
+        <v>43216</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="29" spans="1:14" ht="18" thickBot="1">
+      <c r="A29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickTop="1">
+      <c r="A30" s="4">
         <v>59010187</v>
       </c>
-      <c r="K13" s="4">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>180004</v>
-      </c>
-      <c r="B14" s="33">
+      <c r="B30" s="32">
+        <v>181001</v>
+      </c>
+      <c r="I30" s="4">
+        <v>184001</v>
+      </c>
+      <c r="J30" s="31">
         <v>1236053</v>
       </c>
-      <c r="C14">
+      <c r="K30">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1">
+        <v>43208</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4">
+        <v>59010187</v>
+      </c>
+      <c r="B31" s="32">
+        <v>182002</v>
+      </c>
+      <c r="I31" s="4">
+        <v>184002</v>
+      </c>
+      <c r="J31" s="31">
+        <v>1236053</v>
+      </c>
+      <c r="K31">
         <v>21</v>
       </c>
-      <c r="D14" s="1">
+      <c r="L31" s="1">
         <v>43209</v>
       </c>
-      <c r="E14" s="3">
+      <c r="M31" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F14" s="3">
+      <c r="N31" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J14" s="4">
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="4">
         <v>59010187</v>
       </c>
-      <c r="K14" s="11">
+      <c r="B32" s="32">
+        <v>183002</v>
+      </c>
+      <c r="I32" s="4">
+        <v>184003</v>
+      </c>
+      <c r="J32" s="31">
         <v>1236053</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>180005</v>
-      </c>
-      <c r="B15" s="33">
-        <v>1236055</v>
-      </c>
-      <c r="C15">
+      <c r="K32">
+        <v>22</v>
+      </c>
+      <c r="L32" s="1">
+        <v>43215</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="4">
+        <v>59010187</v>
+      </c>
+      <c r="B33" s="32">
+        <v>184002</v>
+      </c>
+      <c r="I33" s="4">
+        <v>184004</v>
+      </c>
+      <c r="J33" s="31">
+        <v>1236053</v>
+      </c>
+      <c r="K33">
         <v>21</v>
       </c>
-      <c r="D15" s="1">
-        <v>43215</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="L33" s="1">
+        <v>43216</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="4">
         <v>59010164</v>
       </c>
-      <c r="K15" s="11">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>180006</v>
-      </c>
-      <c r="B16" s="34">
-        <v>1236054</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43215</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="B34" s="32">
+        <v>181001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="4">
         <v>59010164</v>
       </c>
-      <c r="K16" s="4">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>180007</v>
-      </c>
-      <c r="B17" s="34">
-        <v>1236052</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43216</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="B35" s="32">
+        <v>182002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="4">
         <v>59010164</v>
       </c>
-      <c r="K17" s="4">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>180008</v>
-      </c>
-      <c r="B18" s="33">
-        <v>1236053</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43216</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="B36" s="32">
+        <v>183002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="4">
         <v>59010164</v>
       </c>
-      <c r="K18" s="11">
-        <v>1236053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>180009</v>
-      </c>
-      <c r="B19" s="34">
-        <v>1236054</v>
-      </c>
-      <c r="C19">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43208</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="B37" s="32">
+        <v>184002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="4">
+        <v>59010187</v>
+      </c>
+      <c r="B38" s="32">
+        <v>181003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="4">
+        <v>59010187</v>
+      </c>
+      <c r="B39" s="32">
+        <v>182004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="4">
+        <v>59010187</v>
+      </c>
+      <c r="B40" s="32">
+        <v>183004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="4">
+        <v>59010187</v>
+      </c>
+      <c r="B41" s="32">
+        <v>184004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="4">
+        <v>59010164</v>
+      </c>
+      <c r="B42" s="32">
+        <v>181003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="4">
+        <v>59010164</v>
+      </c>
+      <c r="B43" s="32">
+        <v>182004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="4">
+        <v>59010164</v>
+      </c>
+      <c r="B44" s="32">
+        <v>183004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="4">
+        <v>59010164</v>
+      </c>
+      <c r="B45" s="32">
+        <v>184004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="4">
         <v>59010940</v>
       </c>
-      <c r="K19" s="11">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>180010</v>
-      </c>
-      <c r="B20" s="34">
-        <v>1236052</v>
-      </c>
-      <c r="C20">
-        <v>22</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43208</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="B46" s="32">
+        <v>182001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="4">
         <v>59010940</v>
       </c>
-      <c r="K20" s="4">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>180011</v>
-      </c>
-      <c r="B21" s="33">
-        <v>1236053</v>
-      </c>
-      <c r="C21">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43208</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="B47" s="32">
+        <v>183001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="4">
         <v>59010940</v>
       </c>
-      <c r="K21" s="4">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>180012</v>
-      </c>
-      <c r="B22" s="33">
-        <v>1236055</v>
-      </c>
-      <c r="C22">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43209</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="B48" s="32">
+        <v>184001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4">
         <v>59010940</v>
       </c>
-      <c r="K22" s="11">
-        <v>1236053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>180013</v>
-      </c>
-      <c r="B23" s="34">
-        <v>1236054</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1">
-        <v>43215</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="B49" s="32">
+        <v>181002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4">
         <v>59011201</v>
       </c>
-      <c r="K23" s="11">
-        <v>1236055</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>180014</v>
-      </c>
-      <c r="B24" s="34">
-        <v>1236052</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1">
-        <v>43215</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="B50" s="32">
+        <v>182001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4">
         <v>59011201</v>
       </c>
-      <c r="K24" s="4">
-        <v>1236054</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>180015</v>
-      </c>
-      <c r="B25" s="33">
-        <v>1236053</v>
-      </c>
-      <c r="C25">
-        <v>22</v>
-      </c>
-      <c r="D25" s="1">
-        <v>43215</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="B51" s="32">
+        <v>183001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4">
         <v>59011201</v>
       </c>
-      <c r="K25" s="4">
-        <v>1236052</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>180016</v>
-      </c>
-      <c r="B26" s="33">
-        <v>1236055</v>
-      </c>
-      <c r="C26">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43216</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="B52" s="32">
+        <v>184001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4">
         <v>59011201</v>
       </c>
-      <c r="K26" s="11">
-        <v>1236053</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
-        <v>1236055</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>1236054</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>1236052</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
-        <v>1236053</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+      <c r="B53" s="32">
+        <v>181002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="B54" s="32">
+        <v>182003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="B55" s="32">
+        <v>183003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="B56" s="32">
+        <v>184003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4">
+        <v>59010940</v>
+      </c>
+      <c r="B57" s="32">
+        <v>181004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="B58" s="32">
+        <v>182003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="B59" s="32">
+        <v>183003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="B60" s="32">
+        <v>184003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4">
+        <v>59011201</v>
+      </c>
+      <c r="B61" s="32">
+        <v>181004</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{9F568282-1033-4A8C-BC27-81ADE31170C9}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{8723831F-863C-494C-A408-2460C405EF65}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{9B7A0851-6F54-4B75-98E3-B13FD710528D}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{1DDD67CE-0376-42F3-B858-CF6DF351A884}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E458DC1-D3D3-496A-9547-C034DC080AD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -5183,7 +5632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" thickTop="1">
       <c r="A2" s="4">
         <v>59010187</v>
       </c>
@@ -5191,7 +5640,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4">
         <v>59010187</v>
       </c>
@@ -5199,7 +5648,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4">
         <v>59010187</v>
       </c>
@@ -5207,7 +5656,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
         <v>59010187</v>
       </c>
@@ -5215,7 +5664,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4">
         <v>59010164</v>
       </c>
@@ -5223,7 +5672,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="4">
         <v>59010164</v>
       </c>
@@ -5231,7 +5680,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4">
         <v>59010164</v>
       </c>
@@ -5239,7 +5688,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4">
         <v>59010164</v>
       </c>
@@ -5247,7 +5696,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4">
         <v>59010940</v>
       </c>
@@ -5255,7 +5704,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4">
         <v>59010940</v>
       </c>
@@ -5263,7 +5712,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4">
         <v>59010940</v>
       </c>
@@ -5271,7 +5720,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4">
         <v>59010940</v>
       </c>
@@ -5279,7 +5728,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="4">
         <v>59011201</v>
       </c>
@@ -5287,7 +5736,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4">
         <v>59011201</v>
       </c>
@@ -5295,7 +5744,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4">
         <v>59011201</v>
       </c>
@@ -5303,7 +5752,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4">
         <v>59011201</v>
       </c>
@@ -5317,16 +5766,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D67B8D5-380C-4AC7-80CB-AE512620D478}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -5337,7 +5786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" s="11">
         <v>1236055</v>
       </c>
@@ -5348,7 +5797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>1236054</v>
       </c>
@@ -5359,7 +5808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>1236052</v>
       </c>
@@ -5370,7 +5819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="11">
         <v>1236053</v>
       </c>
@@ -5387,28 +5836,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79F4D24-ACB5-46B1-8731-46DCAC366ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C1" t="s">
@@ -5424,11 +5873,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1">
       <c r="A2" s="4">
         <v>180001</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="31">
         <v>1236055</v>
       </c>
       <c r="C2">
@@ -5444,11 +5893,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>180002</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <v>1236054</v>
       </c>
       <c r="C3">
@@ -5464,11 +5913,11 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>180003</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="32">
         <v>1236052</v>
       </c>
       <c r="C4">
@@ -5484,11 +5933,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>180004</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>1236053</v>
       </c>
       <c r="C5">
@@ -5504,11 +5953,11 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>180005</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="31">
         <v>1236055</v>
       </c>
       <c r="C6">
@@ -5524,11 +5973,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>180006</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="32">
         <v>1236054</v>
       </c>
       <c r="C7">
@@ -5544,11 +5993,11 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>180007</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>1236052</v>
       </c>
       <c r="C8">
@@ -5564,11 +6013,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>180008</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="31">
         <v>1236053</v>
       </c>
       <c r="C9">
@@ -5584,11 +6033,11 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>180009</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="32">
         <v>1236054</v>
       </c>
       <c r="C10">
@@ -5604,11 +6053,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>180010</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="32">
         <v>1236052</v>
       </c>
       <c r="C11">
@@ -5624,11 +6073,11 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>180011</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="31">
         <v>1236053</v>
       </c>
       <c r="C12">
@@ -5644,11 +6093,11 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>180012</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="31">
         <v>1236055</v>
       </c>
       <c r="C13">
@@ -5664,11 +6113,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>180013</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="32">
         <v>1236054</v>
       </c>
       <c r="C14">
@@ -5684,11 +6133,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>180014</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="32">
         <v>1236052</v>
       </c>
       <c r="C15">
@@ -5704,11 +6153,11 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>180015</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="31">
         <v>1236053</v>
       </c>
       <c r="C16">
@@ -5724,11 +6173,11 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>180016</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="31">
         <v>1236055</v>
       </c>
       <c r="C17">
@@ -5750,26 +6199,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896B6430-AB4E-4029-8EEA-9907AB4CF1AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -5798,7 +6247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" thickTop="1">
       <c r="A2" s="4">
         <v>59010187</v>
       </c>
@@ -5827,7 +6276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>59010164</v>
       </c>
@@ -5856,7 +6305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>59010940</v>
       </c>
@@ -5885,7 +6334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>59011201</v>
       </c>
@@ -5916,10 +6365,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{DD7A9D5E-5106-457E-90BC-3760B8042FBC}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{A82C32AD-BD3A-477D-9AA1-2BE3D713F440}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{4673E7FF-B64D-4D95-B133-A37FA1D2B116}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{D0D9B936-62E4-4906-B7D7-09B187B89B25}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/etc/WebtechNF.xlsx
+++ b/etc/WebtechNF.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01067E06-256B-4749-B1D8-23D7CA3CDCB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
@@ -213,12 +212,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +225,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -234,7 +233,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -243,7 +242,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -454,11 +453,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
-    <cellStyle name="ส่วนที่ถูกเน้น1" xfId="2" builtinId="29"/>
-    <cellStyle name="ส่วนที่ถูกเน้น2" xfId="3" builtinId="33"/>
-    <cellStyle name="หัวเรื่อง 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,27 +734,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -796,7 +795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -837,7 +836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="H3" t="s">
         <v>15</v>
       </c>
@@ -851,7 +850,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="H4" t="s">
         <v>17</v>
       </c>
@@ -868,7 +867,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="H5" t="s">
         <v>18</v>
       </c>
@@ -882,7 +881,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -923,7 +922,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="H7" t="s">
         <v>15</v>
       </c>
@@ -937,7 +936,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="H8" t="s">
         <v>17</v>
       </c>
@@ -954,7 +953,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="H9" t="s">
         <v>18</v>
       </c>
@@ -968,7 +967,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="H11" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="H12" t="s">
         <v>18</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="H13" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="H15" t="s">
         <v>17</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="H16" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="H17" t="s">
         <v>16</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="H19" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="H20" t="s">
         <v>17</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="H21" t="s">
         <v>18</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="H23" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="H24" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1297,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="H25" t="s">
         <v>18</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="9" t="s">
         <v>35</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="H27" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="H28" t="s">
         <v>18</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="H29" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="H31" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="H32" t="s">
         <v>18</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:13">
       <c r="H33" t="s">
         <v>16</v>
       </c>
@@ -1486,14 +1485,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{F0901453-96B2-4B89-A79C-80970F66A7E8}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{3E57E166-0FC0-4C22-90AB-F8E193303D25}"/>
-    <hyperlink ref="G18" r:id="rId3" xr:uid="{F541E2A3-ECB4-4F25-A9B3-546CBBB3A63C}"/>
-    <hyperlink ref="G22" r:id="rId4" xr:uid="{432C2972-6EA0-4590-BE0F-1103B96ACB66}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{1185B4B5-82B6-4D7C-986C-8829CD566551}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{158B4325-8401-442A-9A48-F90EB199948C}"/>
-    <hyperlink ref="G26" r:id="rId7" xr:uid="{665D72F5-9E0D-4E15-B433-8986D0221AF3}"/>
-    <hyperlink ref="G30" r:id="rId8" xr:uid="{E54CF806-BA9D-4C39-A7A9-06C780CB7DB4}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G18" r:id="rId3"/>
+    <hyperlink ref="G22" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G14" r:id="rId6"/>
+    <hyperlink ref="G26" r:id="rId7"/>
+    <hyperlink ref="G30" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -1501,35 +1500,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F97A3-E546-46A8-959E-ED3547506ADB}">
-  <dimension ref="A1:N33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
+    <row r="1" spans="2:16" ht="18" thickBot="1">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1569,11 +1565,11 @@
       <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>59010187</v>
-      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="15.75" thickTop="1">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -1613,11 +1609,14 @@
       <c r="N2" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="O2">
         <v>59010187</v>
       </c>
+      <c r="P2" s="4">
+        <v>180001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1657,11 +1656,14 @@
       <c r="N3" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="O3">
         <v>59010187</v>
       </c>
+      <c r="P3" s="4">
+        <v>180002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1701,11 +1703,14 @@
       <c r="N4" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="O4">
         <v>59010187</v>
       </c>
+      <c r="P4" s="4">
+        <v>180003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1745,11 +1750,14 @@
       <c r="N5" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>59010164</v>
-      </c>
+      <c r="O5">
+        <v>59010187</v>
+      </c>
+      <c r="P5" s="4">
+        <v>180004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1789,11 +1797,14 @@
       <c r="N6" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="O6">
         <v>59010164</v>
       </c>
+      <c r="P6" s="4">
+        <v>180005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1833,11 +1844,14 @@
       <c r="N7" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="O7">
         <v>59010164</v>
       </c>
+      <c r="P7" s="4">
+        <v>180006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1877,11 +1891,14 @@
       <c r="N8" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="O8">
         <v>59010164</v>
       </c>
+      <c r="P8" s="4">
+        <v>180007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1921,11 +1938,14 @@
       <c r="N9" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>59010940</v>
-      </c>
+      <c r="O9">
+        <v>59010164</v>
+      </c>
+      <c r="P9" s="4">
+        <v>180008</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
@@ -1965,11 +1985,14 @@
       <c r="N10" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="O10">
         <v>59010940</v>
       </c>
+      <c r="P10" s="4">
+        <v>180001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
@@ -2009,11 +2032,14 @@
       <c r="N11" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="O11">
         <v>59010940</v>
       </c>
+      <c r="P11" s="4">
+        <v>180002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
@@ -2053,11 +2079,14 @@
       <c r="N12" s="3">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="O12">
         <v>59010940</v>
       </c>
+      <c r="P12" s="4">
+        <v>180003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
@@ -2097,11 +2126,14 @@
       <c r="N13" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>59011201</v>
-      </c>
+      <c r="O13">
+        <v>59010940</v>
+      </c>
+      <c r="P13" s="4">
+        <v>180004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -2141,11 +2173,14 @@
       <c r="N14" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="O14">
         <v>59011201</v>
       </c>
+      <c r="P14" s="4">
+        <v>180005</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -2185,11 +2220,14 @@
       <c r="N15" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="O15">
         <v>59011201</v>
       </c>
+      <c r="P15" s="4">
+        <v>180006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" t="s">
         <v>36</v>
       </c>
@@ -2229,11 +2267,14 @@
       <c r="N16" s="3">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="O16">
         <v>59011201</v>
       </c>
+      <c r="P16" s="4">
+        <v>180007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" t="s">
         <v>36</v>
       </c>
@@ -2273,11 +2314,14 @@
       <c r="N17" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>59010187</v>
-      </c>
+      <c r="O17">
+        <v>59011201</v>
+      </c>
+      <c r="P17" s="4">
+        <v>180008</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2317,11 +2361,14 @@
       <c r="N18" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="O18">
         <v>59010187</v>
       </c>
+      <c r="P18" s="4">
+        <v>180009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -2361,11 +2408,14 @@
       <c r="N19" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="O19">
         <v>59010187</v>
       </c>
+      <c r="P19" s="4">
+        <v>180010</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -2405,11 +2455,14 @@
       <c r="N20" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="O20">
         <v>59010187</v>
       </c>
+      <c r="P20" s="4">
+        <v>180011</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -2449,11 +2502,14 @@
       <c r="N21" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>59010164</v>
-      </c>
+      <c r="O21">
+        <v>59010187</v>
+      </c>
+      <c r="P21" s="4">
+        <v>180012</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -2493,11 +2549,14 @@
       <c r="N22" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="O22">
         <v>59010164</v>
       </c>
+      <c r="P22" s="4">
+        <v>180013</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -2537,11 +2596,14 @@
       <c r="N23" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="O23">
         <v>59010164</v>
       </c>
+      <c r="P23" s="4">
+        <v>180014</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -2581,11 +2643,14 @@
       <c r="N24" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="O24">
         <v>59010164</v>
       </c>
+      <c r="P24" s="4">
+        <v>180015</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -2625,11 +2690,14 @@
       <c r="N25" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>59010940</v>
-      </c>
+      <c r="O25">
+        <v>59010164</v>
+      </c>
+      <c r="P25" s="4">
+        <v>180016</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
@@ -2669,11 +2737,14 @@
       <c r="N26" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="O26">
         <v>59010940</v>
       </c>
+      <c r="P26" s="4">
+        <v>180009</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27" s="9" t="s">
         <v>35</v>
       </c>
@@ -2713,11 +2784,14 @@
       <c r="N27" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="O27">
         <v>59010940</v>
       </c>
+      <c r="P27" s="4">
+        <v>180010</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28" s="9" t="s">
         <v>35</v>
       </c>
@@ -2757,11 +2831,14 @@
       <c r="N28" s="3">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="O28">
         <v>59010940</v>
       </c>
+      <c r="P28" s="4">
+        <v>180011</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
       <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
@@ -2801,11 +2878,14 @@
       <c r="N29" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>59011201</v>
-      </c>
+      <c r="O29">
+        <v>59010940</v>
+      </c>
+      <c r="P29" s="4">
+        <v>180012</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -2845,11 +2925,14 @@
       <c r="N30" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="O30">
         <v>59011201</v>
       </c>
+      <c r="P30" s="4">
+        <v>180013</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31" t="s">
         <v>36</v>
       </c>
@@ -2889,11 +2972,14 @@
       <c r="N31" s="3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="O31">
         <v>59011201</v>
       </c>
+      <c r="P31" s="4">
+        <v>180014</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32" t="s">
         <v>36</v>
       </c>
@@ -2933,11 +3019,14 @@
       <c r="N32" s="3">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="O32">
         <v>59011201</v>
       </c>
+      <c r="P32" s="4">
+        <v>180015</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33" t="s">
         <v>36</v>
       </c>
@@ -2977,68 +3066,74 @@
       <c r="N33" s="3">
         <v>0.5</v>
       </c>
+      <c r="O33">
+        <v>59011201</v>
+      </c>
+      <c r="P33" s="4">
+        <v>180016</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{749BA21D-0006-4FA6-B294-FCD111467544}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{4FD87E70-744D-4B30-A8A3-B80DAD82006F}"/>
-    <hyperlink ref="H18" r:id="rId3" xr:uid="{785977A1-EB59-4174-980C-9BC4634BA4CC}"/>
-    <hyperlink ref="H22" r:id="rId4" xr:uid="{078ED141-AFDA-4017-B2E2-5A69DBBC2435}"/>
-    <hyperlink ref="H10" r:id="rId5" xr:uid="{EF172961-9A90-422C-9196-C8CC2A3BA75D}"/>
-    <hyperlink ref="H14" r:id="rId6" xr:uid="{486DC79C-735E-4358-945B-D6960AAE4DFD}"/>
-    <hyperlink ref="H26" r:id="rId7" xr:uid="{8F00E713-7E80-4468-B7E8-F2CABA7C4BAF}"/>
-    <hyperlink ref="H30" r:id="rId8" xr:uid="{FFB5C2CE-7A94-4FBC-8845-84665C6267F0}"/>
-    <hyperlink ref="H3" r:id="rId9" xr:uid="{CA83B32C-61CE-4C84-A44E-4D15BBD85F02}"/>
-    <hyperlink ref="H4" r:id="rId10" xr:uid="{D6982996-5624-43BE-B229-BD6BB401865C}"/>
-    <hyperlink ref="H5" r:id="rId11" xr:uid="{96423F9F-E73D-4942-97A1-8B5CBE92BCB8}"/>
-    <hyperlink ref="H7" r:id="rId12" xr:uid="{D5D62210-8474-43C3-887E-4CFC868E7318}"/>
-    <hyperlink ref="H8" r:id="rId13" xr:uid="{656E7249-C0DC-4515-8BFF-6DCAD6B7C146}"/>
-    <hyperlink ref="H9" r:id="rId14" xr:uid="{E1F31E46-ED9C-4ABF-9B41-B7D8C6117436}"/>
-    <hyperlink ref="H11" r:id="rId15" xr:uid="{031BFF46-714F-4B50-A99C-1FAA93381A3E}"/>
-    <hyperlink ref="H12" r:id="rId16" xr:uid="{768CF1B7-79B0-46E7-BC34-1E1C168F9E1C}"/>
-    <hyperlink ref="H13" r:id="rId17" xr:uid="{39F257B0-EEF0-4DA6-BCF6-601783A3B063}"/>
-    <hyperlink ref="H15" r:id="rId18" xr:uid="{7DEF4884-BB0B-436D-9643-7038206C559C}"/>
-    <hyperlink ref="H16" r:id="rId19" xr:uid="{9F59C62B-59A0-443F-BF11-4F91DA6670A2}"/>
-    <hyperlink ref="H17" r:id="rId20" xr:uid="{00E9643F-132E-4F2A-8C97-AC1DE7C3256A}"/>
-    <hyperlink ref="H19" r:id="rId21" xr:uid="{3256A7B5-FA6F-4155-B342-29BBAF8009D3}"/>
-    <hyperlink ref="H20" r:id="rId22" xr:uid="{992AFF1F-F946-411A-87C9-15E4E976AA54}"/>
-    <hyperlink ref="H21" r:id="rId23" xr:uid="{F889E944-B7BE-41F4-ACFA-0D8BF2DED158}"/>
-    <hyperlink ref="H23" r:id="rId24" xr:uid="{4ECC3C74-5A44-4B6E-8919-7C690B38D432}"/>
-    <hyperlink ref="H24" r:id="rId25" xr:uid="{D50262D8-4156-4B81-A41A-384E9E9EA0EB}"/>
-    <hyperlink ref="H25" r:id="rId26" xr:uid="{30DB25A5-1833-460D-9D57-533D8B2C6793}"/>
-    <hyperlink ref="H27" r:id="rId27" xr:uid="{A3FB433E-641D-4737-812E-087A36F20492}"/>
-    <hyperlink ref="H28" r:id="rId28" xr:uid="{8C8A45E1-71F2-41B6-A98E-A8F2C2CE35FD}"/>
-    <hyperlink ref="H29" r:id="rId29" xr:uid="{BA5FF3B1-A4D2-4FFB-8078-2493BBCB8508}"/>
-    <hyperlink ref="H31" r:id="rId30" xr:uid="{CEE4178D-CCAA-4A4A-AADB-22E98E19C070}"/>
-    <hyperlink ref="H32" r:id="rId31" xr:uid="{88717631-3234-4AE7-BB69-E729A93F7E4B}"/>
-    <hyperlink ref="H33" r:id="rId32" xr:uid="{42BE465D-F1FD-4AB2-9A9D-C9EB336FC96E}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H18" r:id="rId3"/>
+    <hyperlink ref="H22" r:id="rId4"/>
+    <hyperlink ref="H10" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H26" r:id="rId7"/>
+    <hyperlink ref="H30" r:id="rId8"/>
+    <hyperlink ref="H3" r:id="rId9"/>
+    <hyperlink ref="H4" r:id="rId10"/>
+    <hyperlink ref="H5" r:id="rId11"/>
+    <hyperlink ref="H7" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13"/>
+    <hyperlink ref="H9" r:id="rId14"/>
+    <hyperlink ref="H11" r:id="rId15"/>
+    <hyperlink ref="H12" r:id="rId16"/>
+    <hyperlink ref="H13" r:id="rId17"/>
+    <hyperlink ref="H15" r:id="rId18"/>
+    <hyperlink ref="H16" r:id="rId19"/>
+    <hyperlink ref="H17" r:id="rId20"/>
+    <hyperlink ref="H19" r:id="rId21"/>
+    <hyperlink ref="H20" r:id="rId22"/>
+    <hyperlink ref="H21" r:id="rId23"/>
+    <hyperlink ref="H23" r:id="rId24"/>
+    <hyperlink ref="H24" r:id="rId25"/>
+    <hyperlink ref="H25" r:id="rId26"/>
+    <hyperlink ref="H27" r:id="rId27"/>
+    <hyperlink ref="H28" r:id="rId28"/>
+    <hyperlink ref="H29" r:id="rId29"/>
+    <hyperlink ref="H31" r:id="rId30"/>
+    <hyperlink ref="H32" r:id="rId31"/>
+    <hyperlink ref="H33" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E604AACA-A7DC-47B6-8F32-40D60245717C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -3067,7 +3162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" thickTop="1">
       <c r="A2" s="21">
         <v>59010187</v>
       </c>
@@ -3096,7 +3191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="21">
         <v>59010164</v>
       </c>
@@ -3125,7 +3220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="21">
         <v>59010940</v>
       </c>
@@ -3154,7 +3249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="21">
         <v>59011201</v>
       </c>
@@ -3183,7 +3278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="A6" s="22"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -3194,23 +3289,23 @@
       <c r="H6" s="23"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:11" ht="18" thickBot="1">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
@@ -3239,7 +3334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" thickTop="1">
       <c r="A13" s="16">
         <v>1236055</v>
       </c>
@@ -3268,7 +3363,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="21">
         <v>1236054</v>
       </c>
@@ -3297,7 +3392,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="21">
         <v>1236052</v>
       </c>
@@ -3326,7 +3421,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="16">
         <v>1236053</v>
       </c>
@@ -3355,7 +3450,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="16">
         <v>1236055</v>
       </c>
@@ -3384,7 +3479,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="21">
         <v>1236054</v>
       </c>
@@ -3413,7 +3508,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="21">
         <v>1236052</v>
       </c>
@@ -3442,7 +3537,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="16">
         <v>1236053</v>
       </c>
@@ -3471,7 +3566,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="21">
         <v>1236054</v>
       </c>
@@ -3500,7 +3595,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="21">
         <v>1236052</v>
       </c>
@@ -3529,7 +3624,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="16">
         <v>1236053</v>
       </c>
@@ -3558,7 +3653,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="16">
         <v>1236055</v>
       </c>
@@ -3587,7 +3682,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="21">
         <v>1236054</v>
       </c>
@@ -3616,7 +3711,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="21">
         <v>1236052</v>
       </c>
@@ -3645,7 +3740,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="16">
         <v>1236053</v>
       </c>
@@ -3674,7 +3769,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="16">
         <v>1236055</v>
       </c>
@@ -3703,7 +3798,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -3712,53 +3807,53 @@
       <c r="F29" s="23"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="L32" s="6"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="12:12">
       <c r="L34" s="7"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="12:12">
       <c r="L37" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{512203D7-6F7B-418E-A2B1-C322867992D0}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{48D99483-3A04-428D-BE86-2CFC6E6E613B}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{771AFAA7-C742-4642-94D4-9E0AA2C2AF10}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{EB08043C-0483-45FA-AB5B-E9B9CAE9DFFE}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74B3C0D-7223-4786-BF61-2299651FCC91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A19" sqref="A19:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -3787,7 +3882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" thickTop="1">
       <c r="A2" s="4">
         <v>59010187</v>
       </c>
@@ -3816,7 +3911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>59010164</v>
       </c>
@@ -3845,7 +3940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>59010940</v>
       </c>
@@ -3874,7 +3969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>59011201</v>
       </c>
@@ -3903,22 +3998,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
@@ -3944,7 +4039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" thickTop="1">
       <c r="A11" s="4">
         <v>180001</v>
       </c>
@@ -3970,7 +4065,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>180002</v>
       </c>
@@ -3996,7 +4091,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>180003</v>
       </c>
@@ -4022,7 +4117,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>180004</v>
       </c>
@@ -4048,7 +4143,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>180005</v>
       </c>
@@ -4074,7 +4169,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>180006</v>
       </c>
@@ -4100,7 +4195,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>180007</v>
       </c>
@@ -4126,7 +4221,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>180008</v>
       </c>
@@ -4152,7 +4247,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>180009</v>
       </c>
@@ -4178,7 +4273,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>180010</v>
       </c>
@@ -4204,7 +4299,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>180011</v>
       </c>
@@ -4230,7 +4325,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>180012</v>
       </c>
@@ -4256,7 +4351,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>180013</v>
       </c>
@@ -4282,7 +4377,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>180014</v>
       </c>
@@ -4308,7 +4403,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>180015</v>
       </c>
@@ -4334,7 +4429,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>180016</v>
       </c>
@@ -4360,7 +4455,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="18" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>31</v>
       </c>
@@ -4371,7 +4466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="15.75" thickTop="1">
       <c r="A31" s="11">
         <v>1236055</v>
       </c>
@@ -4382,7 +4477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>1236054</v>
       </c>
@@ -4393,7 +4488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="4">
         <v>1236052</v>
       </c>
@@ -4404,7 +4499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="11">
         <v>1236053</v>
       </c>
@@ -4415,65 +4510,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="7"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{FD780023-95C4-4F89-8B64-5B5F24CAD145}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{C1D3C7DC-38F3-4DF6-9A33-00D98A470FB1}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{7CAF78B6-538A-43AC-929D-D5CEDA1F3294}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{3558B701-ED9C-4CA0-96A4-C8E107F4F7C3}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7E34D-C7F1-4E6B-8D8C-98EE39133568}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="J10:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -4502,7 +4597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" thickTop="1">
       <c r="A2" s="4">
         <v>59010187</v>
       </c>
@@ -4531,7 +4626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>59010164</v>
       </c>
@@ -4560,7 +4655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>59010940</v>
       </c>
@@ -4589,7 +4684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>59011201</v>
       </c>
@@ -4618,22 +4713,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
@@ -4659,7 +4754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" thickTop="1">
       <c r="A11" s="4">
         <v>180001</v>
       </c>
@@ -4685,7 +4780,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>180002</v>
       </c>
@@ -4711,7 +4806,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>180003</v>
       </c>
@@ -4737,7 +4832,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>180004</v>
       </c>
@@ -4763,7 +4858,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>180005</v>
       </c>
@@ -4789,7 +4884,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>180006</v>
       </c>
@@ -4815,7 +4910,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>180007</v>
       </c>
@@ -4841,7 +4936,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>180008</v>
       </c>
@@ -4867,7 +4962,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>180009</v>
       </c>
@@ -4893,7 +4988,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>180010</v>
       </c>
@@ -4919,7 +5014,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>180011</v>
       </c>
@@ -4945,7 +5040,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>180012</v>
       </c>
@@ -4971,7 +5066,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>180013</v>
       </c>
@@ -4997,7 +5092,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>180014</v>
       </c>
@@ -5023,7 +5118,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>180015</v>
       </c>
@@ -5049,7 +5144,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>180016</v>
       </c>
@@ -5075,7 +5170,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="18" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>31</v>
       </c>
@@ -5086,7 +5181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="15.75" thickTop="1">
       <c r="A31" s="11">
         <v>1236055</v>
       </c>
@@ -5097,7 +5192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>1236054</v>
       </c>
@@ -5108,7 +5203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="4">
         <v>1236052</v>
       </c>
@@ -5119,7 +5214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="11">
         <v>1236053</v>
       </c>
@@ -5130,52 +5225,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="7"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{9F568282-1033-4A8C-BC27-81ADE31170C9}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{8723831F-863C-494C-A408-2460C405EF65}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{9B7A0851-6F54-4B75-98E3-B13FD710528D}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{1DDD67CE-0376-42F3-B858-CF6DF351A884}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E458DC1-D3D3-496A-9547-C034DC080AD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -5183,7 +5278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" thickTop="1">
       <c r="A2" s="4">
         <v>59010187</v>
       </c>
@@ -5191,7 +5286,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4">
         <v>59010187</v>
       </c>
@@ -5199,7 +5294,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4">
         <v>59010187</v>
       </c>
@@ -5207,7 +5302,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
         <v>59010187</v>
       </c>
@@ -5215,7 +5310,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4">
         <v>59010164</v>
       </c>
@@ -5223,7 +5318,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="4">
         <v>59010164</v>
       </c>
@@ -5231,7 +5326,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4">
         <v>59010164</v>
       </c>
@@ -5239,7 +5334,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4">
         <v>59010164</v>
       </c>
@@ -5247,7 +5342,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4">
         <v>59010940</v>
       </c>
@@ -5255,7 +5350,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4">
         <v>59010940</v>
       </c>
@@ -5263,7 +5358,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4">
         <v>59010940</v>
       </c>
@@ -5271,7 +5366,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4">
         <v>59010940</v>
       </c>
@@ -5279,7 +5374,7 @@
         <v>1236053</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="4">
         <v>59011201</v>
       </c>
@@ -5287,7 +5382,7 @@
         <v>1236055</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4">
         <v>59011201</v>
       </c>
@@ -5295,7 +5390,7 @@
         <v>1236054</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4">
         <v>59011201</v>
       </c>
@@ -5303,7 +5398,7 @@
         <v>1236052</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4">
         <v>59011201</v>
       </c>
@@ -5317,16 +5412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D67B8D5-380C-4AC7-80CB-AE512620D478}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -5337,7 +5432,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1">
       <c r="A2" s="11">
         <v>1236055</v>
       </c>
@@ -5348,7 +5443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>1236054</v>
       </c>
@@ -5359,7 +5454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>1236052</v>
       </c>
@@ -5370,7 +5465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="11">
         <v>1236053</v>
       </c>
@@ -5387,24 +5482,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79F4D24-ACB5-46B1-8731-46DCAC366ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>58</v>
       </c>
@@ -5424,7 +5519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1">
       <c r="A2" s="4">
         <v>180001</v>
       </c>
@@ -5444,7 +5539,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>180002</v>
       </c>
@@ -5464,7 +5559,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>180003</v>
       </c>
@@ -5484,7 +5579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>180004</v>
       </c>
@@ -5504,7 +5599,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>180005</v>
       </c>
@@ -5524,7 +5619,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>180006</v>
       </c>
@@ -5544,7 +5639,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>180007</v>
       </c>
@@ -5564,7 +5659,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
         <v>180008</v>
       </c>
@@ -5584,7 +5679,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
         <v>180009</v>
       </c>
@@ -5604,7 +5699,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>180010</v>
       </c>
@@ -5624,7 +5719,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>180011</v>
       </c>
@@ -5644,7 +5739,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
         <v>180012</v>
       </c>
@@ -5664,7 +5759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
         <v>180013</v>
       </c>
@@ -5684,7 +5779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
         <v>180014</v>
       </c>
@@ -5704,7 +5799,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
         <v>180015</v>
       </c>
@@ -5724,7 +5819,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>180016</v>
       </c>
@@ -5750,26 +5845,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896B6430-AB4E-4029-8EEA-9907AB4CF1AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -5798,7 +5893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" thickTop="1">
       <c r="A2" s="4">
         <v>59010187</v>
       </c>
@@ -5827,7 +5922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>59010164</v>
       </c>
@@ -5856,7 +5951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>59010940</v>
       </c>
@@ -5885,7 +5980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>59011201</v>
       </c>
@@ -5916,10 +6011,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{DD7A9D5E-5106-457E-90BC-3760B8042FBC}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{A82C32AD-BD3A-477D-9AA1-2BE3D713F440}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{4673E7FF-B64D-4D95-B133-A37FA1D2B116}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{D0D9B936-62E4-4906-B7D7-09B187B89B25}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/etc/WebtechNF.xlsx
+++ b/etc/WebtechNF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="4NF" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="49">
   <si>
     <t>Student_name</t>
   </si>
@@ -134,6 +135,42 @@
   </si>
   <si>
     <t>Day_ID</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakkapat </t>
+  </si>
+  <si>
+    <t>Booroj</t>
+  </si>
+  <si>
+    <t>Kanutsanun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nithipanich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phattana </t>
+  </si>
+  <si>
+    <t>Wongyuttanapong</t>
+  </si>
+  <si>
+    <t>Waritsara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Siriaksorn</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>day_ID</t>
   </si>
 </sst>
 </file>
@@ -252,7 +289,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
@@ -264,6 +301,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -549,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="L1" sqref="L1:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -566,747 +604,776 @@
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" ht="18" thickBot="1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1">
+      <c r="A2">
+        <v>59010187</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>35449</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
       <c r="J2">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1">
         <v>43208</v>
       </c>
-      <c r="L2" s="3">
-        <v>0.39583333333333331</v>
-      </c>
       <c r="M2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N2" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="H3" t="s">
+    <row r="3" spans="1:14">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="H4" t="s">
+    <row r="4" spans="1:14">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
         <v>43209</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>0.375</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="H5" t="s">
+    <row r="5" spans="1:14">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>59010164</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>35670</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
       <c r="J6">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1">
         <v>43208</v>
       </c>
-      <c r="L6" s="3">
-        <v>0.39583333333333331</v>
-      </c>
       <c r="M6" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N6" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="H7" t="s">
+    <row r="7" spans="1:14">
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="H8" t="s">
+    <row r="8" spans="1:14">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
         <v>43209</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>0.375</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="H9" t="s">
+    <row r="9" spans="1:14">
+      <c r="I9" t="s">
         <v>18</v>
       </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>59010940</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>35944</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
       <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
       <c r="J10">
-        <v>22</v>
-      </c>
-      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10" s="1">
         <v>43208</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>0.375</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="H11" t="s">
+    <row r="11" spans="1:14">
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="H12" t="s">
+    <row r="12" spans="1:14">
+      <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="H13" t="s">
+    <row r="13" spans="1:14">
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
         <v>43209</v>
       </c>
-      <c r="L13" s="3">
-        <v>0.39583333333333331</v>
-      </c>
       <c r="M13" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N13" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>59011201</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>35944</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>15</v>
       </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
       <c r="J14">
-        <v>22</v>
-      </c>
-      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+      <c r="L14" s="1">
         <v>43208</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>0.375</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="H15" t="s">
+    <row r="15" spans="1:14">
+      <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="H16" t="s">
+    <row r="16" spans="1:14">
+      <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="H17" t="s">
+    <row r="17" spans="1:14">
+      <c r="I17" t="s">
         <v>16</v>
       </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
         <v>43209</v>
       </c>
-      <c r="L17" s="3">
-        <v>0.39583333333333331</v>
-      </c>
       <c r="M17" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N17" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>59010187</v>
+      </c>
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>35449</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>16</v>
       </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
       <c r="J18">
-        <v>21</v>
-      </c>
-      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>21</v>
+      </c>
+      <c r="L18" s="1">
         <v>43215</v>
       </c>
-      <c r="L18" s="3">
-        <v>0.39583333333333331</v>
-      </c>
       <c r="M18" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N18" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="H19" t="s">
+    <row r="19" spans="1:14">
+      <c r="I19" t="s">
         <v>15</v>
       </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="M19" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="H20" t="s">
+    <row r="20" spans="1:14">
+      <c r="I20" t="s">
         <v>17</v>
       </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
         <v>43216</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>0.375</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="H21" t="s">
+    <row r="21" spans="1:14">
+      <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>59010164</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>35670</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>16</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
       <c r="J22">
-        <v>21</v>
-      </c>
-      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22" s="1">
         <v>43215</v>
       </c>
-      <c r="L22" s="3">
-        <v>0.39583333333333331</v>
-      </c>
       <c r="M22" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N22" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="H23" t="s">
+    <row r="23" spans="1:14">
+      <c r="I23" t="s">
         <v>15</v>
       </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="H24" t="s">
+    <row r="24" spans="1:14">
+      <c r="I24" t="s">
         <v>17</v>
       </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1">
         <v>43216</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>0.375</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="H25" t="s">
+    <row r="25" spans="1:14">
+      <c r="I25" t="s">
         <v>18</v>
       </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="M25" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>59010940</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>35944</v>
       </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
       <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>15</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
       <c r="J26">
-        <v>22</v>
-      </c>
-      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="L26" s="1">
         <v>43215</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>0.375</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="H27" t="s">
+    <row r="27" spans="1:14">
+      <c r="I27" t="s">
         <v>17</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="H28" t="s">
+    <row r="28" spans="1:14">
+      <c r="I28" t="s">
         <v>18</v>
       </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="L28" s="3">
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="M28" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="H29" t="s">
+    <row r="29" spans="1:14">
+      <c r="I29" t="s">
         <v>16</v>
       </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
         <v>43216</v>
       </c>
-      <c r="L29" s="3">
-        <v>0.39583333333333331</v>
-      </c>
       <c r="M29" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N29" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>59011201</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>35788</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>31</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>15</v>
       </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
       <c r="J30">
-        <v>22</v>
-      </c>
-      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>22</v>
+      </c>
+      <c r="L30" s="1">
         <v>43215</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>0.375</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="H31" t="s">
+    <row r="31" spans="1:14">
+      <c r="I31" t="s">
         <v>17</v>
       </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="L31" s="3">
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="M31" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="H32" t="s">
+    <row r="32" spans="1:14">
+      <c r="I32" t="s">
         <v>18</v>
       </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="33" spans="8:13">
-      <c r="H33" t="s">
+    <row r="33" spans="9:14">
+      <c r="I33" t="s">
         <v>16</v>
       </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="K33" s="1">
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1">
         <v>43216</v>
       </c>
-      <c r="L33" s="3">
-        <v>0.39583333333333331</v>
-      </c>
       <c r="M33" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="N33" s="3">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G6" r:id="rId2"/>
-    <hyperlink ref="G18" r:id="rId3"/>
-    <hyperlink ref="G22" r:id="rId4"/>
-    <hyperlink ref="G10" r:id="rId5"/>
-    <hyperlink ref="G14" r:id="rId6"/>
-    <hyperlink ref="G26" r:id="rId7"/>
-    <hyperlink ref="G30" r:id="rId8"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H18" r:id="rId3"/>
+    <hyperlink ref="H22" r:id="rId4"/>
+    <hyperlink ref="H10" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H26" r:id="rId7"/>
+    <hyperlink ref="H30" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -1318,29 +1385,29 @@
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A33"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11" style="9" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1364,13 +1431,13 @@
       <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>34</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1384,7 +1451,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickTop="1">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>59010187</v>
       </c>
       <c r="B2" t="s">
@@ -1408,7 +1475,7 @@
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J2">
@@ -1421,7 +1488,7 @@
         <v>43208</v>
       </c>
       <c r="M2" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N2" s="3">
         <v>0.5</v>
@@ -1429,7 +1496,7 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>59010187</v>
       </c>
       <c r="B3" t="s">
@@ -1453,7 +1520,7 @@
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J3">
@@ -1461,9 +1528,6 @@
       </c>
       <c r="K3">
         <v>21</v>
-      </c>
-      <c r="L3" s="1">
-        <v>43208</v>
       </c>
       <c r="M3" s="3">
         <v>0.54166666666666663</v>
@@ -1474,7 +1538,7 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>59010187</v>
       </c>
       <c r="B4" t="s">
@@ -1498,7 +1562,7 @@
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J4">
@@ -1519,7 +1583,7 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>59010187</v>
       </c>
       <c r="B5" t="s">
@@ -1543,7 +1607,7 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J5">
@@ -1551,9 +1615,6 @@
       </c>
       <c r="K5">
         <v>21</v>
-      </c>
-      <c r="L5" s="1">
-        <v>43209</v>
       </c>
       <c r="M5" s="3">
         <v>0.54166666666666663</v>
@@ -1564,7 +1625,7 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>59010164</v>
       </c>
       <c r="B6" t="s">
@@ -1588,7 +1649,7 @@
       <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J6">
@@ -1601,7 +1662,7 @@
         <v>43208</v>
       </c>
       <c r="M6" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N6" s="3">
         <v>0.5</v>
@@ -1609,7 +1670,7 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>59010164</v>
       </c>
       <c r="B7" t="s">
@@ -1633,7 +1694,7 @@
       <c r="H7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J7">
@@ -1641,9 +1702,6 @@
       </c>
       <c r="K7">
         <v>21</v>
-      </c>
-      <c r="L7" s="1">
-        <v>43208</v>
       </c>
       <c r="M7" s="3">
         <v>0.54166666666666663</v>
@@ -1654,7 +1712,7 @@
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>59010164</v>
       </c>
       <c r="B8" t="s">
@@ -1678,7 +1736,7 @@
       <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J8">
@@ -1699,7 +1757,7 @@
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>59010164</v>
       </c>
       <c r="B9" t="s">
@@ -1723,7 +1781,7 @@
       <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J9">
@@ -1731,9 +1789,6 @@
       </c>
       <c r="K9">
         <v>21</v>
-      </c>
-      <c r="L9" s="1">
-        <v>43209</v>
       </c>
       <c r="M9" s="3">
         <v>0.54166666666666663</v>
@@ -1744,7 +1799,7 @@
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>59010940</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1768,7 +1823,7 @@
       <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J10">
@@ -1789,7 +1844,7 @@
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>59010940</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1813,7 +1868,7 @@
       <c r="H11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J11">
@@ -1821,9 +1876,6 @@
       </c>
       <c r="K11">
         <v>22</v>
-      </c>
-      <c r="L11" s="1">
-        <v>43208</v>
       </c>
       <c r="M11" s="3">
         <v>0.54166666666666663</v>
@@ -1834,7 +1886,7 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>59010940</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1858,7 +1910,7 @@
       <c r="H12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J12">
@@ -1866,9 +1918,6 @@
       </c>
       <c r="K12">
         <v>22</v>
-      </c>
-      <c r="L12" s="1">
-        <v>43208</v>
       </c>
       <c r="M12" s="3">
         <v>0.72916666666666663</v>
@@ -1879,7 +1928,7 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>59010940</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1903,7 +1952,7 @@
       <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J13">
@@ -1916,7 +1965,7 @@
         <v>43209</v>
       </c>
       <c r="M13" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N13" s="3">
         <v>0.5</v>
@@ -1924,7 +1973,7 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14">
+      <c r="A14" s="9">
         <v>59011201</v>
       </c>
       <c r="B14" t="s">
@@ -1948,7 +1997,7 @@
       <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J14">
@@ -1969,7 +2018,7 @@
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>59011201</v>
       </c>
       <c r="B15" t="s">
@@ -1993,7 +2042,7 @@
       <c r="H15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J15">
@@ -2001,9 +2050,6 @@
       </c>
       <c r="K15">
         <v>22</v>
-      </c>
-      <c r="L15" s="1">
-        <v>43208</v>
       </c>
       <c r="M15" s="3">
         <v>0.54166666666666663</v>
@@ -2014,7 +2060,7 @@
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16">
+      <c r="A16" s="9">
         <v>59011201</v>
       </c>
       <c r="B16" t="s">
@@ -2038,7 +2084,7 @@
       <c r="H16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J16">
@@ -2046,9 +2092,6 @@
       </c>
       <c r="K16">
         <v>22</v>
-      </c>
-      <c r="L16" s="1">
-        <v>43208</v>
       </c>
       <c r="M16" s="3">
         <v>0.72916666666666663</v>
@@ -2059,7 +2102,7 @@
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17">
+      <c r="A17" s="9">
         <v>59011201</v>
       </c>
       <c r="B17" t="s">
@@ -2083,7 +2126,7 @@
       <c r="H17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J17">
@@ -2096,7 +2139,7 @@
         <v>43209</v>
       </c>
       <c r="M17" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N17" s="3">
         <v>0.5</v>
@@ -2104,7 +2147,7 @@
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18">
+      <c r="A18" s="9">
         <v>59010187</v>
       </c>
       <c r="B18" t="s">
@@ -2128,7 +2171,7 @@
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J18">
@@ -2141,7 +2184,7 @@
         <v>43215</v>
       </c>
       <c r="M18" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N18" s="3">
         <v>0.5</v>
@@ -2149,7 +2192,7 @@
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19">
+      <c r="A19" s="9">
         <v>59010187</v>
       </c>
       <c r="B19" t="s">
@@ -2173,7 +2216,7 @@
       <c r="H19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J19">
@@ -2181,9 +2224,6 @@
       </c>
       <c r="K19">
         <v>21</v>
-      </c>
-      <c r="L19" s="1">
-        <v>43215</v>
       </c>
       <c r="M19" s="3">
         <v>0.54166666666666663</v>
@@ -2194,7 +2234,7 @@
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20">
+      <c r="A20" s="9">
         <v>59010187</v>
       </c>
       <c r="B20" t="s">
@@ -2218,7 +2258,7 @@
       <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J20">
@@ -2239,7 +2279,7 @@
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21">
+      <c r="A21" s="9">
         <v>59010187</v>
       </c>
       <c r="B21" t="s">
@@ -2263,7 +2303,7 @@
       <c r="H21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J21">
@@ -2271,9 +2311,6 @@
       </c>
       <c r="K21">
         <v>21</v>
-      </c>
-      <c r="L21" s="1">
-        <v>43216</v>
       </c>
       <c r="M21" s="3">
         <v>0.54166666666666663</v>
@@ -2284,7 +2321,7 @@
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22">
+      <c r="A22" s="9">
         <v>59010164</v>
       </c>
       <c r="B22" t="s">
@@ -2308,7 +2345,7 @@
       <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J22">
@@ -2321,7 +2358,7 @@
         <v>43215</v>
       </c>
       <c r="M22" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N22" s="3">
         <v>0.5</v>
@@ -2329,7 +2366,7 @@
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23">
+      <c r="A23" s="9">
         <v>59010164</v>
       </c>
       <c r="B23" t="s">
@@ -2353,7 +2390,7 @@
       <c r="H23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J23">
@@ -2361,9 +2398,6 @@
       </c>
       <c r="K23">
         <v>21</v>
-      </c>
-      <c r="L23" s="1">
-        <v>43215</v>
       </c>
       <c r="M23" s="3">
         <v>0.54166666666666663</v>
@@ -2374,7 +2408,7 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24">
+      <c r="A24" s="9">
         <v>59010164</v>
       </c>
       <c r="B24" t="s">
@@ -2398,7 +2432,7 @@
       <c r="H24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J24">
@@ -2419,7 +2453,7 @@
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25">
+      <c r="A25" s="9">
         <v>59010164</v>
       </c>
       <c r="B25" t="s">
@@ -2443,7 +2477,7 @@
       <c r="H25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J25">
@@ -2451,9 +2485,6 @@
       </c>
       <c r="K25">
         <v>21</v>
-      </c>
-      <c r="L25" s="1">
-        <v>43216</v>
       </c>
       <c r="M25" s="3">
         <v>0.54166666666666663</v>
@@ -2464,7 +2495,7 @@
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26">
+      <c r="A26" s="9">
         <v>59010940</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -2488,7 +2519,7 @@
       <c r="H26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J26">
@@ -2509,7 +2540,7 @@
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27">
+      <c r="A27" s="9">
         <v>59010940</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2533,7 +2564,7 @@
       <c r="H27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J27">
@@ -2541,9 +2572,6 @@
       </c>
       <c r="K27">
         <v>22</v>
-      </c>
-      <c r="L27" s="1">
-        <v>43215</v>
       </c>
       <c r="M27" s="3">
         <v>0.54166666666666663</v>
@@ -2554,7 +2582,7 @@
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28">
+      <c r="A28" s="9">
         <v>59010940</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2578,7 +2606,7 @@
       <c r="H28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J28">
@@ -2586,9 +2614,6 @@
       </c>
       <c r="K28">
         <v>22</v>
-      </c>
-      <c r="L28" s="1">
-        <v>43215</v>
       </c>
       <c r="M28" s="3">
         <v>0.72916666666666663</v>
@@ -2599,7 +2624,7 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29">
+      <c r="A29" s="9">
         <v>59010940</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -2623,7 +2648,7 @@
       <c r="H29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J29">
@@ -2636,7 +2661,7 @@
         <v>43216</v>
       </c>
       <c r="M29" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N29" s="3">
         <v>0.5</v>
@@ -2644,7 +2669,7 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30">
+      <c r="A30" s="9">
         <v>59011201</v>
       </c>
       <c r="B30" t="s">
@@ -2668,7 +2693,7 @@
       <c r="H30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J30">
@@ -2689,7 +2714,7 @@
       <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31">
+      <c r="A31" s="9">
         <v>59011201</v>
       </c>
       <c r="B31" t="s">
@@ -2713,7 +2738,7 @@
       <c r="H31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J31">
@@ -2721,9 +2746,6 @@
       </c>
       <c r="K31">
         <v>22</v>
-      </c>
-      <c r="L31" s="1">
-        <v>43215</v>
       </c>
       <c r="M31" s="3">
         <v>0.54166666666666663</v>
@@ -2734,7 +2756,7 @@
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32">
+      <c r="A32" s="9">
         <v>59011201</v>
       </c>
       <c r="B32" t="s">
@@ -2758,7 +2780,7 @@
       <c r="H32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J32">
@@ -2766,9 +2788,6 @@
       </c>
       <c r="K32">
         <v>22</v>
-      </c>
-      <c r="L32" s="1">
-        <v>43215</v>
       </c>
       <c r="M32" s="3">
         <v>0.72916666666666663</v>
@@ -2779,7 +2798,7 @@
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33">
+      <c r="A33" s="9">
         <v>59011201</v>
       </c>
       <c r="B33" t="s">
@@ -2803,7 +2822,7 @@
       <c r="H33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J33">
@@ -2816,7 +2835,7 @@
         <v>43216</v>
       </c>
       <c r="M33" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="N33" s="3">
         <v>0.5</v>
@@ -3010,26 +3029,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="9" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -3039,29 +3058,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" thickBot="1">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
+      <c r="B1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R1" s="6"/>
       <c r="S1" s="5"/>
@@ -3069,246 +3082,297 @@
       <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>59010187</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>35449</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43208</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3">
-        <v>59010164</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>35670</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
+      <c r="A3" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43208</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4">
-        <v>59010940</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>35944</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>33</v>
+      <c r="A4" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43209</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5">
-        <v>59011201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>35788</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
+      <c r="A5" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43209</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21">
+      <c r="A6" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43208</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43208</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43209</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.5</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43209</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="18" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
+    <row r="10" spans="1:21">
+      <c r="A10" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43208</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.5</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickTop="1">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
+    <row r="11" spans="1:21">
+      <c r="A11" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>43208</v>
       </c>
       <c r="E11" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <v>59010187</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
+      <c r="A12" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1">
         <v>43208</v>
       </c>
       <c r="E12" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F12" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12">
-        <v>59010187</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
+      <c r="A13" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>43209</v>
@@ -3318,52 +3382,40 @@
       </c>
       <c r="F13" s="3">
         <v>0.5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13">
-        <v>59010187</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
+      <c r="A14" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
-        <v>43209</v>
+        <v>43208</v>
       </c>
       <c r="E14" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="F14" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14">
-        <v>59010187</v>
+        <v>0.5</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
+      <c r="A15" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C15">
         <v>22</v>
@@ -3372,27 +3424,21 @@
         <v>43208</v>
       </c>
       <c r="E15" s="3">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F15" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>59010164</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
+      <c r="A16" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C16">
         <v>22</v>
@@ -3401,85 +3447,67 @@
         <v>43208</v>
       </c>
       <c r="E16" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F16" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16">
-        <v>59010164</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
+      <c r="A17" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C17">
         <v>22</v>
       </c>
       <c r="D17" s="1">
-        <v>43208</v>
+        <v>43209</v>
       </c>
       <c r="E17" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="F17" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17">
-        <v>59010164</v>
+        <v>0.5</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" t="s">
+      <c r="A18" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
       <c r="C18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
-        <v>43209</v>
+        <v>43215</v>
       </c>
       <c r="E18" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="F18" s="3">
         <v>0.5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18">
-        <v>59010164</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
+      <c r="A19" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -3488,56 +3516,44 @@
         <v>43215</v>
       </c>
       <c r="E19" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19">
-        <v>59010940</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
+      <c r="A20" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
       <c r="D20" s="1">
-        <v>43215</v>
+        <v>43216</v>
       </c>
       <c r="E20" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="F20" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20">
-        <v>59010940</v>
+        <v>0.5</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
+      <c r="A21" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -3546,234 +3562,421 @@
         <v>43216</v>
       </c>
       <c r="E21" s="3">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F21" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <v>59010940</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
+      <c r="A22" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" s="1">
-        <v>43216</v>
+        <v>43215</v>
       </c>
       <c r="E22" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="F22" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22">
-        <v>59010940</v>
+        <v>0.5</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" t="s">
+      <c r="A23" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
       <c r="C23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
         <v>43215</v>
       </c>
       <c r="E23" s="3">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23">
-        <v>59011201</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" t="s">
+      <c r="A24" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
       <c r="C24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1">
-        <v>43215</v>
+        <v>43216</v>
       </c>
       <c r="E24" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="F24" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24">
-        <v>59011201</v>
+        <v>0.5</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" t="s">
+      <c r="A25" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
       <c r="C25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1">
-        <v>43215</v>
+        <v>43216</v>
       </c>
       <c r="E25" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F25" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25">
-        <v>59011201</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
+      <c r="A26" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C26">
         <v>22</v>
       </c>
       <c r="D26" s="1">
-        <v>43216</v>
+        <v>43215</v>
       </c>
       <c r="E26" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="F26" s="3">
         <v>0.5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26">
-        <v>59011201</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="1:21">
+      <c r="A27" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43215</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="S27" s="1"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21">
+      <c r="A28" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43215</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="S28" s="1"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21">
+      <c r="A29" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43216</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.5</v>
+      </c>
       <c r="S29" s="1"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
     </row>
     <row r="30" spans="1:21">
+      <c r="A30" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43215</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.5</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43215</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="S31" s="1"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43215</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="S32" s="1"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
     </row>
-    <row r="33" spans="4:21">
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+    <row r="33" spans="1:21">
+      <c r="A33" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43216</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.5</v>
+      </c>
       <c r="S33" s="1"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
     </row>
-    <row r="34" spans="4:21">
-      <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="39" spans="4:21">
-      <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="4:21">
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="4:21" ht="15.75" customHeight="1">
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="4:21">
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+    <row r="41" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:21">
+      <c r="A44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
+        <v>35449</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1">
+        <v>35670</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1">
+        <v>35944</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1">
+        <v>35788</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="60" spans="17:17">
       <c r="Q60" s="4"/>
@@ -3849,10 +4052,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H45" r:id="rId1"/>
+    <hyperlink ref="H47" r:id="rId2"/>
+    <hyperlink ref="H46" r:id="rId3"/>
+    <hyperlink ref="H48" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3862,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3895,24 +4098,27 @@
         <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="R1" s="6"/>
@@ -3925,24 +4131,27 @@
         <v>59010187</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>35449</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="S2" s="1"/>
@@ -3954,24 +4163,27 @@
         <v>59010164</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>35670</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="S3" s="1"/>
@@ -3983,24 +4195,27 @@
         <v>59010940</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>35944</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="S4" s="1"/>
@@ -4012,24 +4227,27 @@
         <v>59011201</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>35788</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="1"/>
@@ -4065,106 +4283,85 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" ht="18" thickBot="1">
-      <c r="A10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>25</v>
-      </c>
+    <row r="10" spans="1:21" ht="17.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="6"/>
       <c r="S10" s="1"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickTop="1">
-      <c r="A11" s="9">
-        <v>180001</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1236055</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43208</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1236055</v>
-      </c>
-      <c r="L11" s="9">
-        <v>59010187</v>
+    <row r="11" spans="1:21" ht="18" thickBot="1">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" ht="15.75" thickTop="1">
       <c r="A12" s="9">
-        <v>180002</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1236054</v>
+        <v>1236055</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="F12" s="9">
+        <v>21</v>
+      </c>
+      <c r="G12" s="11">
         <v>43208</v>
       </c>
-      <c r="E12" s="8">
-        <v>2</v>
-      </c>
-      <c r="G12" s="9">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1236054</v>
-      </c>
-      <c r="L12" s="9">
-        <v>59010187</v>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.5</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="3"/>
@@ -4172,34 +4369,35 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="9">
-        <v>180003</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1236052</v>
+        <v>1236054</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43209</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1236052</v>
-      </c>
-      <c r="L13" s="9">
-        <v>59010187</v>
+        <v>3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1236054</v>
+      </c>
+      <c r="F13" s="9">
+        <v>21</v>
+      </c>
+      <c r="G13" s="11">
+        <v>43208</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.66666666666666663</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="3"/>
@@ -4207,27 +4405,35 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="9">
-        <v>180004</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1236053</v>
+        <v>1236052</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1236052</v>
+      </c>
+      <c r="F14" s="9">
+        <v>21</v>
+      </c>
+      <c r="G14" s="11">
         <v>43209</v>
       </c>
-      <c r="E14" s="8">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="K14" s="9">
-        <v>1236053</v>
-      </c>
-      <c r="L14" s="9">
-        <v>59010187</v>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.85416666666666663</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="3"/>
@@ -4235,462 +4441,847 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="9">
-        <v>180005</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1236055</v>
+        <v>1236053</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43208</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="K15" s="9">
-        <v>1236055</v>
-      </c>
-      <c r="L15" s="9">
-        <v>59010164</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1236053</v>
+      </c>
+      <c r="F15" s="9">
+        <v>21</v>
+      </c>
+      <c r="G15" s="11">
+        <v>43209</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
       <c r="S15" s="1"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="9">
-        <v>180006</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="A16" s="9"/>
+      <c r="E16" s="9">
         <v>1236054</v>
       </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="F16" s="9">
+        <v>22</v>
+      </c>
+      <c r="G16" s="11">
         <v>43208</v>
       </c>
-      <c r="E16" s="8">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="9">
-        <v>1236054</v>
-      </c>
-      <c r="L16" s="9">
-        <v>59010164</v>
-      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
       <c r="S16" s="1"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="9">
-        <v>180007</v>
-      </c>
-      <c r="B17" s="10">
+      <c r="A17" s="9"/>
+      <c r="E17" s="9">
         <v>1236052</v>
       </c>
-      <c r="C17">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="F17" s="9">
+        <v>22</v>
+      </c>
+      <c r="G17" s="11">
         <v>43208</v>
       </c>
-      <c r="E17" s="8">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="9">
-        <v>1236052</v>
-      </c>
-      <c r="L17" s="9">
-        <v>59010164</v>
-      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="S17" s="1"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="9">
-        <v>180008</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="A18" s="9"/>
+      <c r="E18" s="9">
         <v>1236053</v>
       </c>
-      <c r="C18">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43209</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="K18" s="9">
-        <v>1236053</v>
-      </c>
-      <c r="L18" s="9">
-        <v>59010164</v>
-      </c>
+      <c r="F18" s="9">
+        <v>22</v>
+      </c>
+      <c r="G18" s="11">
+        <v>43208</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9"/>
       <c r="S18" s="1"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="9">
-        <v>180009</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1236054</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43215</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="A19" s="9"/>
+      <c r="E19" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="F19" s="9">
+        <v>22</v>
+      </c>
+      <c r="G19" s="11">
+        <v>43209</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="K19" s="9">
-        <v>1236054</v>
-      </c>
-      <c r="L19" s="9">
-        <v>59010940</v>
-      </c>
+      <c r="J19" s="9"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
       <c r="S19" s="1"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="9">
-        <v>180010</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1236052</v>
-      </c>
-      <c r="C20">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="A20" s="9"/>
+      <c r="E20" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="F20" s="9">
+        <v>21</v>
+      </c>
+      <c r="G20" s="11">
         <v>43215</v>
       </c>
-      <c r="E20" s="8">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="K20" s="9">
-        <v>1236052</v>
-      </c>
-      <c r="L20" s="9">
-        <v>59010940</v>
-      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="S20" s="1"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="9">
-        <v>180011</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1236053</v>
-      </c>
-      <c r="C21">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43216</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="K21" s="9">
-        <v>1236053</v>
-      </c>
-      <c r="L21" s="9">
-        <v>59010940</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="E21" s="9">
+        <v>1236054</v>
+      </c>
+      <c r="F21" s="9">
+        <v>21</v>
+      </c>
+      <c r="G21" s="11">
+        <v>43215</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="S21" s="1"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="9">
-        <v>180012</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1236055</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="A22" s="9"/>
+      <c r="E22" s="9">
+        <v>1236052</v>
+      </c>
+      <c r="F22" s="9">
+        <v>21</v>
+      </c>
+      <c r="G22" s="11">
         <v>43216</v>
       </c>
-      <c r="E22" s="8">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="K22" s="9">
-        <v>1236055</v>
-      </c>
-      <c r="L22" s="9">
-        <v>59010940</v>
-      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
       <c r="S22" s="1"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="9">
-        <v>180013</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1236054</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1">
-        <v>43215</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="K23" s="9">
-        <v>1236054</v>
-      </c>
-      <c r="L23" s="9">
-        <v>59011201</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="E23" s="9">
+        <v>1236053</v>
+      </c>
+      <c r="F23" s="9">
+        <v>21</v>
+      </c>
+      <c r="G23" s="11">
+        <v>43216</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
       <c r="S23" s="1"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="9">
-        <v>180014</v>
-      </c>
-      <c r="B24" s="10">
-        <v>1236052</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="A24" s="9"/>
+      <c r="E24" s="9">
+        <v>1236054</v>
+      </c>
+      <c r="F24" s="9">
+        <v>22</v>
+      </c>
+      <c r="G24" s="11">
         <v>43215</v>
       </c>
-      <c r="E24" s="8">
-        <v>2</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="K24" s="9">
-        <v>1236052</v>
-      </c>
-      <c r="L24" s="9">
-        <v>59011201</v>
-      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
       <c r="S24" s="1"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="9">
-        <v>180015</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1236053</v>
-      </c>
-      <c r="C25">
-        <v>22</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="A25" s="9"/>
+      <c r="E25" s="9">
+        <v>1236052</v>
+      </c>
+      <c r="F25" s="9">
+        <v>22</v>
+      </c>
+      <c r="G25" s="11">
         <v>43215</v>
       </c>
-      <c r="E25" s="8">
-        <v>3</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1236053</v>
-      </c>
-      <c r="L25" s="9">
-        <v>59011201</v>
-      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
       <c r="S25" s="1"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="9">
-        <v>180016</v>
-      </c>
-      <c r="B26" s="10">
-        <v>1236055</v>
-      </c>
-      <c r="C26">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43216</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="K26" s="9">
-        <v>1236055</v>
-      </c>
-      <c r="L26" s="9">
-        <v>59011201</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="E26" s="9">
+        <v>1236053</v>
+      </c>
+      <c r="F26" s="9">
+        <v>22</v>
+      </c>
+      <c r="G26" s="11">
+        <v>43215</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
       <c r="S26" s="1"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="1:21">
+      <c r="A27" s="9"/>
+      <c r="E27" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="F27" s="9">
+        <v>22</v>
+      </c>
+      <c r="G27" s="11">
+        <v>43216</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
       <c r="S27" s="1"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21">
+      <c r="A28" s="9"/>
       <c r="S28" s="1"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21">
+      <c r="A29" s="9"/>
       <c r="S29" s="1"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
     </row>
-    <row r="30" spans="1:21" ht="18" thickBot="1">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="6"/>
+    <row r="30" spans="1:21">
+      <c r="A30" s="9"/>
+      <c r="J30" s="9"/>
       <c r="S30" s="1"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" thickTop="1">
-      <c r="A31">
+    <row r="31" spans="1:21">
+      <c r="A31" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B31" s="9">
         <v>1236055</v>
       </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="9">
+        <v>21</v>
+      </c>
+      <c r="D31" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="11"/>
+      <c r="J31" s="9"/>
       <c r="S31" s="1"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32">
+      <c r="A32" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B32" s="9">
         <v>1236054</v>
       </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="C32" s="9">
+        <v>21</v>
+      </c>
+      <c r="D32" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="9"/>
       <c r="S32" s="1"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33">
+      <c r="A33" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B33" s="9">
         <v>1236052</v>
       </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="C33" s="9">
+        <v>21</v>
+      </c>
+      <c r="D33" s="11">
+        <v>43209</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="9"/>
       <c r="S33" s="1"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34">
+      <c r="A34" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B34" s="9">
         <v>1236053</v>
       </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="9">
+        <v>21</v>
+      </c>
+      <c r="D34" s="11">
+        <v>43209</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="C35" s="9">
+        <v>21</v>
+      </c>
+      <c r="D35" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1236054</v>
+      </c>
+      <c r="C36" s="9">
+        <v>21</v>
+      </c>
+      <c r="D36" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1236052</v>
+      </c>
+      <c r="C37" s="9">
+        <v>21</v>
+      </c>
+      <c r="D37" s="11">
+        <v>43209</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1236053</v>
+      </c>
+      <c r="C38" s="9">
+        <v>21</v>
+      </c>
+      <c r="D38" s="11">
+        <v>43209</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="A39" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B39" s="9">
+        <v>1236054</v>
+      </c>
+      <c r="C39" s="9">
+        <v>22</v>
+      </c>
+      <c r="D39" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="A40" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1236052</v>
+      </c>
+      <c r="C40" s="9">
+        <v>22</v>
+      </c>
+      <c r="D40" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="11"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1">
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="A41" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1236053</v>
+      </c>
+      <c r="C41" s="9">
+        <v>22</v>
+      </c>
+      <c r="D41" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="11"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="60" spans="17:17">
+      <c r="A42" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="C42" s="9">
+        <v>22</v>
+      </c>
+      <c r="D42" s="11">
+        <v>43209</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="11"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B43" s="9">
+        <v>1236054</v>
+      </c>
+      <c r="C43" s="9">
+        <v>22</v>
+      </c>
+      <c r="D43" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="11"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1236052</v>
+      </c>
+      <c r="C44" s="9">
+        <v>22</v>
+      </c>
+      <c r="D44" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="11"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B45" s="9">
+        <v>1236053</v>
+      </c>
+      <c r="C45" s="9">
+        <v>22</v>
+      </c>
+      <c r="D45" s="11">
+        <v>43208</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="11"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B46" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="C46" s="9">
+        <v>22</v>
+      </c>
+      <c r="D46" s="11">
+        <v>43209</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="11"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B47" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="C47" s="9">
+        <v>21</v>
+      </c>
+      <c r="D47" s="11">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B48" s="9">
+        <v>1236054</v>
+      </c>
+      <c r="C48" s="9">
+        <v>21</v>
+      </c>
+      <c r="D48" s="11">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1236052</v>
+      </c>
+      <c r="C49" s="9">
+        <v>21</v>
+      </c>
+      <c r="D49" s="11">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="9">
+        <v>59010187</v>
+      </c>
+      <c r="B50" s="9">
+        <v>1236053</v>
+      </c>
+      <c r="C50" s="9">
+        <v>21</v>
+      </c>
+      <c r="D50" s="11">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B51" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="C51" s="9">
+        <v>21</v>
+      </c>
+      <c r="D51" s="11">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B52" s="9">
+        <v>1236054</v>
+      </c>
+      <c r="C52" s="9">
+        <v>21</v>
+      </c>
+      <c r="D52" s="11">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B53" s="9">
+        <v>1236052</v>
+      </c>
+      <c r="C53" s="9">
+        <v>21</v>
+      </c>
+      <c r="D53" s="11">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="9">
+        <v>59010164</v>
+      </c>
+      <c r="B54" s="9">
+        <v>1236053</v>
+      </c>
+      <c r="C54" s="9">
+        <v>21</v>
+      </c>
+      <c r="D54" s="11">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B55" s="9">
+        <v>1236054</v>
+      </c>
+      <c r="C55" s="9">
+        <v>22</v>
+      </c>
+      <c r="D55" s="11">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B56" s="9">
+        <v>1236052</v>
+      </c>
+      <c r="C56" s="9">
+        <v>22</v>
+      </c>
+      <c r="D56" s="11">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B57" s="9">
+        <v>1236053</v>
+      </c>
+      <c r="C57" s="9">
+        <v>22</v>
+      </c>
+      <c r="D57" s="11">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="9">
+        <v>59010940</v>
+      </c>
+      <c r="B58" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="C58" s="9">
+        <v>22</v>
+      </c>
+      <c r="D58" s="11">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B59" s="9">
+        <v>1236054</v>
+      </c>
+      <c r="C59" s="9">
+        <v>22</v>
+      </c>
+      <c r="D59" s="11">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B60" s="9">
+        <v>1236052</v>
+      </c>
+      <c r="C60" s="9">
+        <v>22</v>
+      </c>
+      <c r="D60" s="11">
+        <v>43215</v>
+      </c>
       <c r="Q60" s="4"/>
     </row>
-    <row r="61" spans="17:17">
+    <row r="61" spans="1:17">
+      <c r="A61" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B61" s="9">
+        <v>1236053</v>
+      </c>
+      <c r="C61" s="9">
+        <v>22</v>
+      </c>
+      <c r="D61" s="11">
+        <v>43215</v>
+      </c>
       <c r="Q61" s="4"/>
     </row>
-    <row r="62" spans="17:17">
+    <row r="62" spans="1:17">
+      <c r="A62" s="9">
+        <v>59011201</v>
+      </c>
+      <c r="B62" s="9">
+        <v>1236055</v>
+      </c>
+      <c r="C62" s="9">
+        <v>22</v>
+      </c>
+      <c r="D62" s="11">
+        <v>43216</v>
+      </c>
       <c r="Q62" s="4"/>
     </row>
-    <row r="63" spans="17:17">
+    <row r="63" spans="1:17">
       <c r="Q63" s="4"/>
     </row>
-    <row r="64" spans="17:17">
+    <row r="64" spans="1:17">
       <c r="Q64" s="4"/>
     </row>
     <row r="65" spans="17:17">
@@ -4752,10 +5343,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4763,212 +5354,227 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickBot="1">
+    <row r="1" spans="1:22" ht="18" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="5"/>
+      <c r="S1" s="6"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" thickTop="1">
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickTop="1">
       <c r="A2" s="9">
         <v>59010187</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>35449</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="3"/>
+      <c r="T2" s="1"/>
       <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="9">
         <v>59010164</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>35670</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="3"/>
+      <c r="T3" s="1"/>
       <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="9">
         <v>59010940</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>35944</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="3"/>
+      <c r="T4" s="1"/>
       <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="9">
         <v>59011201</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>35788</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="3"/>
+      <c r="T5" s="1"/>
       <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="S6" s="1"/>
-      <c r="T6" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="T6" s="1"/>
       <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="D7" s="1"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="E7" s="1"/>
-      <c r="G7" s="2"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="T7" s="1"/>
       <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="D8" s="1"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="E8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="T8" s="1"/>
       <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="D9" s="1"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="E9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="T9" s="1"/>
       <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" ht="18" thickBot="1">
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" ht="18" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
@@ -4978,28 +5584,31 @@
       <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="9" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="3"/>
+      <c r="N10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="1"/>
       <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" thickTop="1">
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickTop="1">
       <c r="A11" s="9">
         <v>180001</v>
       </c>
@@ -5009,28 +5618,31 @@
       <c r="C11">
         <v>21</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="8"/>
-      <c r="G11" s="9">
+      <c r="E11" s="1"/>
+      <c r="F11" s="8"/>
+      <c r="H11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>0.375</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>0.5</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <v>1236055</v>
       </c>
-      <c r="L11" s="9">
+      <c r="M11" s="9">
         <v>59010187</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="3"/>
+      <c r="N11">
+        <v>21</v>
+      </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="9">
         <v>180002</v>
       </c>
@@ -5040,28 +5652,31 @@
       <c r="C12">
         <v>21</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="8"/>
-      <c r="G12" s="9">
+      <c r="E12" s="1"/>
+      <c r="F12" s="8"/>
+      <c r="H12" s="9">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>1236054</v>
       </c>
-      <c r="L12" s="9">
+      <c r="M12" s="9">
         <v>59010187</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="3"/>
+      <c r="N12">
+        <v>21</v>
+      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="9">
         <v>180003</v>
       </c>
@@ -5071,28 +5686,31 @@
       <c r="C13">
         <v>21</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="8"/>
-      <c r="G13" s="9">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="E13" s="1"/>
+      <c r="F13" s="8"/>
+      <c r="H13" s="9">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>0.85416666666666663</v>
       </c>
-      <c r="K13" s="9">
+      <c r="L13" s="9">
         <v>1236052</v>
       </c>
-      <c r="L13" s="9">
+      <c r="M13" s="9">
         <v>59010187</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="3"/>
+      <c r="N13">
+        <v>21</v>
+      </c>
+      <c r="T13" s="1"/>
       <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="9">
         <v>180004</v>
       </c>
@@ -5102,21 +5720,24 @@
       <c r="C14">
         <v>21</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="8"/>
-      <c r="H14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="8"/>
       <c r="I14" s="3"/>
-      <c r="K14" s="9">
+      <c r="J14" s="3"/>
+      <c r="L14" s="9">
         <v>1236053</v>
       </c>
-      <c r="L14" s="9">
+      <c r="M14" s="9">
         <v>59010187</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="3"/>
+      <c r="N14">
+        <v>21</v>
+      </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="9">
         <v>180005</v>
       </c>
@@ -5126,21 +5747,24 @@
       <c r="C15">
         <v>22</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
-      <c r="H15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8"/>
       <c r="I15" s="3"/>
-      <c r="K15" s="9">
+      <c r="J15" s="3"/>
+      <c r="L15" s="9">
         <v>1236055</v>
       </c>
-      <c r="L15" s="9">
+      <c r="M15" s="9">
         <v>59010164</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="3"/>
+      <c r="N15">
+        <v>22</v>
+      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="9">
         <v>180006</v>
       </c>
@@ -5150,21 +5774,24 @@
       <c r="C16">
         <v>22</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-      <c r="H16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="8"/>
       <c r="I16" s="3"/>
-      <c r="K16" s="9">
+      <c r="J16" s="3"/>
+      <c r="L16" s="9">
         <v>1236054</v>
       </c>
-      <c r="L16" s="9">
+      <c r="M16" s="9">
         <v>59010164</v>
       </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="3"/>
+      <c r="N16">
+        <v>22</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="9">
         <v>180007</v>
       </c>
@@ -5174,21 +5801,24 @@
       <c r="C17">
         <v>22</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="8"/>
       <c r="I17" s="3"/>
-      <c r="K17" s="9">
+      <c r="J17" s="3"/>
+      <c r="L17" s="9">
         <v>1236052</v>
       </c>
-      <c r="L17" s="9">
+      <c r="M17" s="9">
         <v>59010164</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="3"/>
+      <c r="N17">
+        <v>22</v>
+      </c>
+      <c r="T17" s="1"/>
       <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="9">
         <v>180008</v>
       </c>
@@ -5198,21 +5828,24 @@
       <c r="C18">
         <v>22</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
-      <c r="H18" s="3"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="8"/>
       <c r="I18" s="3"/>
-      <c r="K18" s="9">
+      <c r="J18" s="3"/>
+      <c r="L18" s="9">
         <v>1236053</v>
       </c>
-      <c r="L18" s="9">
+      <c r="M18" s="9">
         <v>59010164</v>
       </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="3"/>
+      <c r="N18">
+        <v>22</v>
+      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="9">
         <v>180009</v>
       </c>
@@ -5222,21 +5855,24 @@
       <c r="C19">
         <v>21</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="8"/>
-      <c r="H19" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="8"/>
       <c r="I19" s="3"/>
-      <c r="K19" s="9">
+      <c r="J19" s="3"/>
+      <c r="L19" s="9">
         <v>1236054</v>
       </c>
-      <c r="L19" s="9">
+      <c r="M19" s="9">
         <v>59010940</v>
       </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="3"/>
+      <c r="N19">
+        <v>21</v>
+      </c>
+      <c r="T19" s="1"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="9">
         <v>180010</v>
       </c>
@@ -5246,21 +5882,24 @@
       <c r="C20">
         <v>21</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="8"/>
-      <c r="H20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="8"/>
       <c r="I20" s="3"/>
-      <c r="K20" s="9">
+      <c r="J20" s="3"/>
+      <c r="L20" s="9">
         <v>1236052</v>
       </c>
-      <c r="L20" s="9">
+      <c r="M20" s="9">
         <v>59010940</v>
       </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="3"/>
+      <c r="N20">
+        <v>21</v>
+      </c>
+      <c r="T20" s="1"/>
       <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="9">
         <v>180011</v>
       </c>
@@ -5270,21 +5909,24 @@
       <c r="C21">
         <v>21</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
-      <c r="H21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="8"/>
       <c r="I21" s="3"/>
-      <c r="K21" s="9">
+      <c r="J21" s="3"/>
+      <c r="L21" s="9">
         <v>1236053</v>
       </c>
-      <c r="L21" s="9">
+      <c r="M21" s="9">
         <v>59010940</v>
       </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="3"/>
+      <c r="N21">
+        <v>21</v>
+      </c>
+      <c r="T21" s="1"/>
       <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="9">
         <v>180012</v>
       </c>
@@ -5294,21 +5936,24 @@
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
-      <c r="H22" s="3"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="8"/>
       <c r="I22" s="3"/>
-      <c r="K22" s="9">
+      <c r="J22" s="3"/>
+      <c r="L22" s="9">
         <v>1236055</v>
       </c>
-      <c r="L22" s="9">
+      <c r="M22" s="9">
         <v>59010940</v>
       </c>
-      <c r="S22" s="1"/>
-      <c r="T22" s="3"/>
+      <c r="N22">
+        <v>21</v>
+      </c>
+      <c r="T22" s="1"/>
       <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="9">
         <v>180013</v>
       </c>
@@ -5318,21 +5963,24 @@
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="8"/>
-      <c r="H23" s="3"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="8"/>
       <c r="I23" s="3"/>
-      <c r="K23" s="9">
+      <c r="J23" s="3"/>
+      <c r="L23" s="9">
         <v>1236054</v>
       </c>
-      <c r="L23" s="9">
+      <c r="M23" s="9">
         <v>59011201</v>
       </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="3"/>
+      <c r="N23">
+        <v>22</v>
+      </c>
+      <c r="T23" s="1"/>
       <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="9">
         <v>180014</v>
       </c>
@@ -5342,21 +5990,24 @@
       <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-      <c r="H24" s="3"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="8"/>
       <c r="I24" s="3"/>
-      <c r="K24" s="9">
+      <c r="J24" s="3"/>
+      <c r="L24" s="9">
         <v>1236052</v>
       </c>
-      <c r="L24" s="9">
+      <c r="M24" s="9">
         <v>59011201</v>
       </c>
-      <c r="S24" s="1"/>
-      <c r="T24" s="3"/>
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="9">
         <v>180015</v>
       </c>
@@ -5366,19 +6017,22 @@
       <c r="C25">
         <v>22</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="8"/>
-      <c r="K25" s="9">
+      <c r="E25" s="1"/>
+      <c r="F25" s="8"/>
+      <c r="L25" s="9">
         <v>1236053</v>
       </c>
-      <c r="L25" s="9">
+      <c r="M25" s="9">
         <v>59011201</v>
       </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="3"/>
+      <c r="N25">
+        <v>22</v>
+      </c>
+      <c r="T25" s="1"/>
       <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="9">
         <v>180016</v>
       </c>
@@ -5388,85 +6042,89 @@
       <c r="C26">
         <v>22</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-      <c r="H26" s="3"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="8"/>
       <c r="I26" s="3"/>
-      <c r="K26" s="9">
+      <c r="J26" s="3"/>
+      <c r="L26" s="9">
         <v>1236055</v>
       </c>
-      <c r="L26" s="9">
+      <c r="M26" s="9">
         <v>59011201</v>
       </c>
-      <c r="S26" s="1"/>
-      <c r="T26" s="3"/>
+      <c r="N26">
+        <v>22</v>
+      </c>
+      <c r="T26" s="1"/>
       <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="S27" s="1"/>
-      <c r="T27" s="3"/>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="T27" s="1"/>
       <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="S28" s="1"/>
-      <c r="T28" s="3"/>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="T28" s="1"/>
       <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="1:21" ht="18" thickBot="1">
-      <c r="K29" t="s">
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="1:22" ht="18" thickBot="1">
+      <c r="L29" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="M29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="N29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="3"/>
+      <c r="T29" s="1"/>
       <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="1:21" ht="18" thickTop="1">
-      <c r="D30" s="6"/>
-      <c r="K30">
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="1:22" ht="18" thickTop="1">
+      <c r="E30" s="6"/>
+      <c r="L30">
         <v>1236055</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>16</v>
       </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="3"/>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21" ht="18" thickBot="1">
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="1:22" ht="18" thickBot="1">
       <c r="A31" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="K31">
+      <c r="G31" s="3"/>
+      <c r="L31">
         <v>1236054</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>15</v>
       </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="3"/>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" thickTop="1">
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" thickTop="1">
       <c r="A32" s="9">
         <v>180001</v>
       </c>
@@ -5476,22 +6134,22 @@
       <c r="C32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="K32">
+      <c r="G32" s="3"/>
+      <c r="L32">
         <v>1236052</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>17</v>
       </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="3"/>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="3"/>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32" s="3"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="9">
         <v>180002</v>
       </c>
@@ -5501,22 +6159,22 @@
       <c r="C33" s="8">
         <v>2</v>
       </c>
-      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="K33">
+      <c r="G33" s="3"/>
+      <c r="L33">
         <v>1236053</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>18</v>
       </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="3"/>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="T33" s="1"/>
       <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="9">
         <v>180003</v>
       </c>
@@ -5526,10 +6184,10 @@
       <c r="C34" s="8">
         <v>1</v>
       </c>
-      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="9">
         <v>180004</v>
       </c>
@@ -5540,7 +6198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:22">
       <c r="A36" s="9">
         <v>180005</v>
       </c>
@@ -5551,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:22">
       <c r="A37" s="9">
         <v>180006</v>
       </c>
@@ -5562,7 +6220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:22">
       <c r="A38" s="9">
         <v>180007</v>
       </c>
@@ -5573,7 +6231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:22">
       <c r="A39" s="9">
         <v>180008</v>
       </c>
@@ -5583,11 +6241,11 @@
       <c r="C39" s="8">
         <v>1</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="9">
         <v>180009</v>
       </c>
@@ -5597,11 +6255,11 @@
       <c r="C40" s="8">
         <v>1</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1">
       <c r="A41" s="9">
         <v>180010</v>
       </c>
@@ -5611,11 +6269,11 @@
       <c r="C41" s="8">
         <v>2</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="9">
         <v>180011</v>
       </c>
@@ -5625,11 +6283,11 @@
       <c r="C42" s="8">
         <v>1</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="9">
         <v>180012</v>
       </c>
@@ -5640,7 +6298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:22">
       <c r="A44" s="9">
         <v>180013</v>
       </c>
@@ -5651,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:22">
       <c r="A45" s="9">
         <v>180014</v>
       </c>
@@ -5662,7 +6320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:22">
       <c r="A46" s="9">
         <v>180015</v>
       </c>
@@ -5673,7 +6331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:22">
       <c r="A47" s="9">
         <v>180016</v>
       </c>
@@ -5684,84 +6342,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="17:17">
-      <c r="Q60" s="4"/>
-    </row>
-    <row r="61" spans="17:17">
-      <c r="Q61" s="4"/>
-    </row>
-    <row r="62" spans="17:17">
-      <c r="Q62" s="4"/>
-    </row>
-    <row r="63" spans="17:17">
-      <c r="Q63" s="4"/>
-    </row>
-    <row r="64" spans="17:17">
-      <c r="Q64" s="4"/>
-    </row>
-    <row r="65" spans="17:17">
-      <c r="Q65" s="4"/>
-    </row>
-    <row r="66" spans="17:17">
-      <c r="Q66" s="4"/>
-    </row>
-    <row r="67" spans="17:17">
-      <c r="Q67" s="4"/>
-    </row>
-    <row r="68" spans="17:17">
-      <c r="Q68" s="4"/>
-    </row>
-    <row r="69" spans="17:17">
-      <c r="Q69" s="4"/>
-    </row>
-    <row r="70" spans="17:17">
-      <c r="Q70" s="4"/>
-    </row>
-    <row r="71" spans="17:17">
-      <c r="Q71" s="4"/>
-    </row>
-    <row r="72" spans="17:17">
-      <c r="Q72" s="4"/>
-    </row>
-    <row r="73" spans="17:17">
-      <c r="Q73" s="4"/>
-    </row>
-    <row r="74" spans="17:17">
-      <c r="Q74" s="4"/>
-    </row>
-    <row r="75" spans="17:17">
-      <c r="Q75" s="4"/>
-    </row>
-    <row r="76" spans="17:17">
-      <c r="Q76" s="4"/>
-    </row>
-    <row r="77" spans="17:17">
-      <c r="Q77" s="4"/>
-    </row>
-    <row r="78" spans="17:17">
-      <c r="Q78" s="4"/>
-    </row>
-    <row r="79" spans="17:17">
-      <c r="Q79" s="4"/>
-    </row>
-    <row r="84" spans="17:17">
-      <c r="Q84" s="4"/>
-    </row>
-    <row r="85" spans="17:17">
-      <c r="Q85" s="4"/>
-    </row>
-    <row r="86" spans="17:17">
-      <c r="Q86" s="4"/>
-    </row>
-    <row r="87" spans="17:17">
-      <c r="Q87" s="4"/>
+    <row r="60" spans="18:18">
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="18:18">
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="18:18">
+      <c r="R62" s="4"/>
+    </row>
+    <row r="63" spans="18:18">
+      <c r="R63" s="4"/>
+    </row>
+    <row r="64" spans="18:18">
+      <c r="R64" s="4"/>
+    </row>
+    <row r="65" spans="18:18">
+      <c r="R65" s="4"/>
+    </row>
+    <row r="66" spans="18:18">
+      <c r="R66" s="4"/>
+    </row>
+    <row r="67" spans="18:18">
+      <c r="R67" s="4"/>
+    </row>
+    <row r="68" spans="18:18">
+      <c r="R68" s="4"/>
+    </row>
+    <row r="69" spans="18:18">
+      <c r="R69" s="4"/>
+    </row>
+    <row r="70" spans="18:18">
+      <c r="R70" s="4"/>
+    </row>
+    <row r="71" spans="18:18">
+      <c r="R71" s="4"/>
+    </row>
+    <row r="72" spans="18:18">
+      <c r="R72" s="4"/>
+    </row>
+    <row r="73" spans="18:18">
+      <c r="R73" s="4"/>
+    </row>
+    <row r="74" spans="18:18">
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="18:18">
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="18:18">
+      <c r="R76" s="4"/>
+    </row>
+    <row r="77" spans="18:18">
+      <c r="R77" s="4"/>
+    </row>
+    <row r="78" spans="18:18">
+      <c r="R78" s="4"/>
+    </row>
+    <row r="79" spans="18:18">
+      <c r="R79" s="4"/>
+    </row>
+    <row r="84" spans="18:18">
+      <c r="R84" s="4"/>
+    </row>
+    <row r="85" spans="18:18">
+      <c r="R85" s="4"/>
+    </row>
+    <row r="86" spans="18:18">
+      <c r="R86" s="4"/>
+    </row>
+    <row r="87" spans="18:18">
+      <c r="R87" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
